--- a/sub_excel.xlsx
+++ b/sub_excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANA\Desktop\excel2str\subtitle_to_srt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="2513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="2514">
   <si>
     <t>※ 공모작 저작권 유의사항</t>
   </si>
@@ -7841,6 +7841,9 @@
   <si>
     <t>aaaa</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>por acá estoy</t>
   </si>
 </sst>
 </file>
@@ -8218,20 +8221,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8240,9 +8229,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8253,6 +8246,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8474,15 +8477,15 @@
   </sheetPr>
   <dimension ref="A1:F971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E972" sqref="E972"/>
+    <sheetView tabSelected="1" topLeftCell="A951" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E970" sqref="E970"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="4" max="4" width="46.453125" customWidth="1"/>
-    <col min="5" max="5" width="50.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -8495,23 +8498,23 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
@@ -8523,13 +8526,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -8541,23 +8544,23 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
@@ -8571,29 +8574,29 @@
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
@@ -8605,23 +8608,23 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
@@ -8633,71 +8636,71 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -8709,11 +8712,11 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
@@ -8967,7 +8970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="1"/>
       <c r="B40" s="42">
         <v>12</v>
@@ -8986,7 +8989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="1"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -9001,7 +9004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="1"/>
       <c r="B42" s="42">
         <v>13</v>
@@ -9020,7 +9023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="1"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -9035,7 +9038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="1"/>
       <c r="B44" s="42">
         <v>14</v>
@@ -9054,7 +9057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="1"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -9069,7 +9072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="1"/>
       <c r="B46" s="21">
         <v>15</v>
@@ -9088,7 +9091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="1"/>
       <c r="B47" s="21">
         <v>16</v>
@@ -9107,7 +9110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="1"/>
       <c r="B48" s="21">
         <v>17</v>
@@ -9126,7 +9129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="1"/>
       <c r="B49" s="21">
         <v>18</v>
@@ -9145,7 +9148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.5">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="1"/>
       <c r="B50" s="21">
         <v>19</v>
@@ -9164,7 +9167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.5">
+    <row r="51" spans="1:6" ht="15">
       <c r="A51" s="1"/>
       <c r="B51" s="21">
         <v>20</v>
@@ -9183,7 +9186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.5">
+    <row r="52" spans="1:6" ht="15">
       <c r="A52" s="1"/>
       <c r="B52" s="21">
         <v>21</v>
@@ -9202,7 +9205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.5">
+    <row r="53" spans="1:6" ht="15">
       <c r="A53" s="1"/>
       <c r="B53" s="42">
         <v>22</v>
@@ -9221,7 +9224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.5">
+    <row r="54" spans="1:6" ht="15">
       <c r="A54" s="1"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -9236,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.5">
+    <row r="55" spans="1:6" ht="15">
       <c r="A55" s="1"/>
       <c r="B55" s="21">
         <v>23</v>
@@ -9255,7 +9258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.5">
+    <row r="56" spans="1:6" ht="15">
       <c r="A56" s="1"/>
       <c r="B56" s="21">
         <v>24</v>
@@ -9274,7 +9277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.5">
+    <row r="57" spans="1:6" ht="15">
       <c r="A57" s="1"/>
       <c r="B57" s="21">
         <v>25</v>
@@ -9293,7 +9296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.5">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="1"/>
       <c r="B58" s="21">
         <v>26</v>
@@ -9312,7 +9315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.5">
+    <row r="59" spans="1:6" ht="15">
       <c r="A59" s="1"/>
       <c r="B59" s="21">
         <v>27</v>
@@ -9331,7 +9334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.5">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="1"/>
       <c r="B60" s="42">
         <v>28</v>
@@ -9350,7 +9353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.5">
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="1"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -9365,7 +9368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.5">
+    <row r="62" spans="1:6" ht="15">
       <c r="A62" s="1"/>
       <c r="B62" s="21">
         <v>29</v>
@@ -9384,7 +9387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.5">
+    <row r="63" spans="1:6" ht="15">
       <c r="A63" s="1"/>
       <c r="B63" s="21">
         <v>30</v>
@@ -9403,7 +9406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.5">
+    <row r="64" spans="1:6" ht="15">
       <c r="A64" s="1"/>
       <c r="B64" s="42">
         <v>31</v>
@@ -9422,7 +9425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.5">
+    <row r="65" spans="1:6" ht="15">
       <c r="A65" s="1"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -9437,7 +9440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.5">
+    <row r="66" spans="1:6" ht="15">
       <c r="A66" s="1"/>
       <c r="B66" s="42">
         <v>32</v>
@@ -9456,7 +9459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.5">
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="1"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -9471,7 +9474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.5">
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="1"/>
       <c r="B68" s="21">
         <v>33</v>
@@ -9490,7 +9493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.5">
+    <row r="69" spans="1:6" ht="15">
       <c r="A69" s="1"/>
       <c r="B69" s="21">
         <v>34</v>
@@ -9509,7 +9512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.5">
+    <row r="70" spans="1:6" ht="15">
       <c r="A70" s="1"/>
       <c r="B70" s="21">
         <v>35</v>
@@ -9528,7 +9531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.5">
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="1"/>
       <c r="B71" s="21">
         <v>36</v>
@@ -9547,7 +9550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.5">
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="1"/>
       <c r="B72" s="21">
         <v>37</v>
@@ -9566,7 +9569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.5">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="1"/>
       <c r="B73" s="21">
         <v>38</v>
@@ -9585,7 +9588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.5">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="1"/>
       <c r="B74" s="21">
         <v>39</v>
@@ -9604,7 +9607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.5">
+    <row r="75" spans="1:6" ht="15">
       <c r="A75" s="1"/>
       <c r="B75" s="21">
         <v>40</v>
@@ -9623,7 +9626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.5">
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="1"/>
       <c r="B76" s="42">
         <v>41</v>
@@ -9642,7 +9645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.5">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="1"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -9657,7 +9660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.5">
+    <row r="78" spans="1:6" ht="15">
       <c r="A78" s="1"/>
       <c r="B78" s="21">
         <v>42</v>
@@ -9676,7 +9679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.5">
+    <row r="79" spans="1:6" ht="15">
       <c r="A79" s="1"/>
       <c r="B79" s="21">
         <v>43</v>
@@ -9695,7 +9698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.5">
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="1"/>
       <c r="B80" s="21">
         <v>44</v>
@@ -9714,7 +9717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.5">
+    <row r="81" spans="1:6" ht="15">
       <c r="A81" s="1"/>
       <c r="B81" s="21">
         <v>45</v>
@@ -9733,7 +9736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.5">
+    <row r="82" spans="1:6" ht="15">
       <c r="A82" s="1"/>
       <c r="B82" s="21">
         <v>46</v>
@@ -9752,7 +9755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.5">
+    <row r="83" spans="1:6" ht="15">
       <c r="A83" s="1"/>
       <c r="B83" s="21">
         <v>47</v>
@@ -9771,7 +9774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.5">
+    <row r="84" spans="1:6" ht="15">
       <c r="A84" s="1"/>
       <c r="B84" s="21">
         <v>48</v>
@@ -9790,7 +9793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.5">
+    <row r="85" spans="1:6" ht="15">
       <c r="A85" s="1"/>
       <c r="B85" s="21">
         <v>49</v>
@@ -9809,7 +9812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.5">
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="1"/>
       <c r="B86" s="21">
         <v>50</v>
@@ -9828,7 +9831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.5">
+    <row r="87" spans="1:6" ht="15">
       <c r="A87" s="1"/>
       <c r="B87" s="21">
         <v>51</v>
@@ -9847,7 +9850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.5">
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="1"/>
       <c r="B88" s="21">
         <v>52</v>
@@ -9866,7 +9869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.5">
+    <row r="89" spans="1:6" ht="15">
       <c r="A89" s="1"/>
       <c r="B89" s="21">
         <v>53</v>
@@ -9885,7 +9888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.5">
+    <row r="90" spans="1:6" ht="15">
       <c r="A90" s="1"/>
       <c r="B90" s="42">
         <v>54</v>
@@ -9904,7 +9907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.5">
+    <row r="91" spans="1:6" ht="15">
       <c r="A91" s="1"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -9919,7 +9922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.5">
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="1"/>
       <c r="B92" s="21">
         <v>55</v>
@@ -9938,7 +9941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.5">
+    <row r="93" spans="1:6" ht="15">
       <c r="A93" s="1"/>
       <c r="B93" s="21">
         <v>56</v>
@@ -9957,7 +9960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.5">
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="1"/>
       <c r="B94" s="21">
         <v>57</v>
@@ -9976,7 +9979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.5">
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="1"/>
       <c r="B95" s="21">
         <v>58</v>
@@ -9995,7 +9998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.5">
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="1"/>
       <c r="B96" s="21">
         <v>59</v>
@@ -10014,7 +10017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.5">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="1"/>
       <c r="B97" s="21">
         <v>60</v>
@@ -10033,7 +10036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.5">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="1"/>
       <c r="B98" s="21">
         <v>61</v>
@@ -10052,7 +10055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.5">
+    <row r="99" spans="1:6" ht="15">
       <c r="A99" s="1"/>
       <c r="B99" s="21">
         <v>62</v>
@@ -10071,7 +10074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.5">
+    <row r="100" spans="1:6" ht="15">
       <c r="A100" s="1"/>
       <c r="B100" s="42">
         <v>63</v>
@@ -10090,7 +10093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.5">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="1"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -10105,7 +10108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.5">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="1"/>
       <c r="B102" s="21">
         <v>64</v>
@@ -10124,7 +10127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.5">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="1"/>
       <c r="B103" s="21">
         <v>65</v>
@@ -10143,7 +10146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.5">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="1"/>
       <c r="B104" s="42">
         <v>66</v>
@@ -10162,7 +10165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.5">
+    <row r="105" spans="1:6" ht="15">
       <c r="A105" s="1"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -10177,7 +10180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.5">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="1"/>
       <c r="B106" s="21">
         <v>67</v>
@@ -10196,7 +10199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.5">
+    <row r="107" spans="1:6" ht="15">
       <c r="A107" s="1"/>
       <c r="B107" s="21">
         <v>68</v>
@@ -10215,7 +10218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.5">
+    <row r="108" spans="1:6" ht="15">
       <c r="A108" s="1"/>
       <c r="B108" s="21">
         <v>69</v>
@@ -10234,7 +10237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.5">
+    <row r="109" spans="1:6" ht="15">
       <c r="A109" s="1"/>
       <c r="B109" s="21">
         <v>70</v>
@@ -10253,7 +10256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.5">
+    <row r="110" spans="1:6" ht="15">
       <c r="A110" s="1"/>
       <c r="B110" s="42">
         <v>71</v>
@@ -10272,7 +10275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.5">
+    <row r="111" spans="1:6" ht="15">
       <c r="A111" s="1"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -10287,7 +10290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.5">
+    <row r="112" spans="1:6" ht="15">
       <c r="A112" s="1"/>
       <c r="B112" s="21">
         <v>72</v>
@@ -10306,7 +10309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.5">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="1"/>
       <c r="B113" s="21">
         <v>73</v>
@@ -10325,7 +10328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.5">
+    <row r="114" spans="1:6" ht="15">
       <c r="A114" s="1"/>
       <c r="B114" s="42">
         <v>74</v>
@@ -10344,7 +10347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.5">
+    <row r="115" spans="1:6" ht="15">
       <c r="A115" s="1"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -10359,7 +10362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.5">
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="1"/>
       <c r="B116" s="21">
         <v>75</v>
@@ -10378,7 +10381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.5">
+    <row r="117" spans="1:6" ht="15">
       <c r="A117" s="1"/>
       <c r="B117" s="42">
         <v>76</v>
@@ -10397,7 +10400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.5">
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="1"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -10412,7 +10415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.5">
+    <row r="119" spans="1:6" ht="15">
       <c r="A119" s="1"/>
       <c r="B119" s="21">
         <v>77</v>
@@ -10431,7 +10434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.5">
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="1"/>
       <c r="B120" s="42">
         <v>78</v>
@@ -10450,7 +10453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.5">
+    <row r="121" spans="1:6" ht="15">
       <c r="A121" s="1"/>
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
@@ -10465,7 +10468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.5">
+    <row r="122" spans="1:6" ht="15">
       <c r="A122" s="1"/>
       <c r="B122" s="21">
         <v>79</v>
@@ -10484,7 +10487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.5">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="1"/>
       <c r="B123" s="21">
         <v>80</v>
@@ -10503,7 +10506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.5">
+    <row r="124" spans="1:6" ht="15">
       <c r="A124" s="1"/>
       <c r="B124" s="21">
         <v>81</v>
@@ -10522,7 +10525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.5">
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="1"/>
       <c r="B125" s="21">
         <v>82</v>
@@ -10541,7 +10544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.5">
+    <row r="126" spans="1:6" ht="15">
       <c r="A126" s="1"/>
       <c r="B126" s="21">
         <v>83</v>
@@ -10560,7 +10563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.5">
+    <row r="127" spans="1:6" ht="15">
       <c r="A127" s="1"/>
       <c r="B127" s="21">
         <v>84</v>
@@ -10579,7 +10582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.5">
+    <row r="128" spans="1:6" ht="15">
       <c r="A128" s="1"/>
       <c r="B128" s="21">
         <v>85</v>
@@ -10598,7 +10601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.5">
+    <row r="129" spans="1:6" ht="15">
       <c r="A129" s="1"/>
       <c r="B129" s="21">
         <v>86</v>
@@ -10617,7 +10620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.5">
+    <row r="130" spans="1:6" ht="15">
       <c r="A130" s="1"/>
       <c r="B130" s="21">
         <v>87</v>
@@ -10636,7 +10639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.5">
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="1"/>
       <c r="B131" s="21">
         <v>88</v>
@@ -10655,7 +10658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="14.5">
+    <row r="132" spans="1:6" ht="15">
       <c r="A132" s="1"/>
       <c r="B132" s="21">
         <v>89</v>
@@ -10674,7 +10677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="14.5">
+    <row r="133" spans="1:6" ht="15">
       <c r="A133" s="1"/>
       <c r="B133" s="21">
         <v>90</v>
@@ -10693,7 +10696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="14.5">
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="1"/>
       <c r="B134" s="42">
         <v>91</v>
@@ -10712,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="14.5">
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="1"/>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
@@ -10727,7 +10730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.5">
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="1"/>
       <c r="B136" s="21">
         <v>92</v>
@@ -10746,7 +10749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="14.5">
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="1"/>
       <c r="B137" s="42">
         <v>93</v>
@@ -10765,7 +10768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="14.5">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="1"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
@@ -10780,7 +10783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="14.5">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="1"/>
       <c r="B139" s="21">
         <v>94</v>
@@ -10799,7 +10802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="14.5">
+    <row r="140" spans="1:6" ht="15">
       <c r="A140" s="1"/>
       <c r="B140" s="21">
         <v>95</v>
@@ -10818,7 +10821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="14.5">
+    <row r="141" spans="1:6" ht="15">
       <c r="A141" s="1"/>
       <c r="B141" s="21">
         <v>96</v>
@@ -10837,7 +10840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="14.5">
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="1"/>
       <c r="B142" s="21">
         <v>97</v>
@@ -10856,7 +10859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.5">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="1"/>
       <c r="B143" s="21">
         <v>98</v>
@@ -10875,7 +10878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.5">
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="1"/>
       <c r="B144" s="42">
         <v>99</v>
@@ -10894,7 +10897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.5">
+    <row r="145" spans="1:6" ht="15">
       <c r="A145" s="1"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -10909,7 +10912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.5">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="1"/>
       <c r="B146" s="21">
         <v>100</v>
@@ -10928,7 +10931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.5">
+    <row r="147" spans="1:6" ht="15">
       <c r="A147" s="1"/>
       <c r="B147" s="21">
         <v>101</v>
@@ -10947,7 +10950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.5">
+    <row r="148" spans="1:6" ht="15">
       <c r="A148" s="1"/>
       <c r="B148" s="42">
         <v>102</v>
@@ -10966,7 +10969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.5">
+    <row r="149" spans="1:6" ht="15">
       <c r="A149" s="1"/>
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
@@ -10981,7 +10984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.5">
+    <row r="150" spans="1:6" ht="15">
       <c r="A150" s="1"/>
       <c r="B150" s="21">
         <v>103</v>
@@ -11000,7 +11003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.5">
+    <row r="151" spans="1:6" ht="15">
       <c r="A151" s="1"/>
       <c r="B151" s="21">
         <v>104</v>
@@ -11019,7 +11022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.5">
+    <row r="152" spans="1:6" ht="15">
       <c r="A152" s="1"/>
       <c r="B152" s="21">
         <v>105</v>
@@ -11038,7 +11041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.5">
+    <row r="153" spans="1:6" ht="15">
       <c r="A153" s="1"/>
       <c r="B153" s="21">
         <v>106</v>
@@ -11057,7 +11060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.5">
+    <row r="154" spans="1:6" ht="15">
       <c r="A154" s="1"/>
       <c r="B154" s="21">
         <v>107</v>
@@ -11076,7 +11079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.5">
+    <row r="155" spans="1:6" ht="15">
       <c r="A155" s="1"/>
       <c r="B155" s="21">
         <v>108</v>
@@ -11095,7 +11098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.5">
+    <row r="156" spans="1:6" ht="15">
       <c r="A156" s="1"/>
       <c r="B156" s="42">
         <v>109</v>
@@ -11114,7 +11117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.5">
+    <row r="157" spans="1:6" ht="15">
       <c r="A157" s="1"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
@@ -11129,7 +11132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="14.5">
+    <row r="158" spans="1:6" ht="15">
       <c r="A158" s="1"/>
       <c r="B158" s="21">
         <v>110</v>
@@ -11148,7 +11151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.5">
+    <row r="159" spans="1:6" ht="15">
       <c r="A159" s="1"/>
       <c r="B159" s="21">
         <v>111</v>
@@ -11167,7 +11170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.5">
+    <row r="160" spans="1:6" ht="15">
       <c r="A160" s="1"/>
       <c r="B160" s="21">
         <v>112</v>
@@ -11186,7 +11189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.5">
+    <row r="161" spans="1:6" ht="15">
       <c r="A161" s="1"/>
       <c r="B161" s="42">
         <v>113</v>
@@ -11205,7 +11208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.5">
+    <row r="162" spans="1:6" ht="15">
       <c r="A162" s="1"/>
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
@@ -11220,7 +11223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.5">
+    <row r="163" spans="1:6" ht="15">
       <c r="A163" s="1"/>
       <c r="B163" s="21">
         <v>114</v>
@@ -11239,7 +11242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.5">
+    <row r="164" spans="1:6" ht="15">
       <c r="A164" s="1"/>
       <c r="B164" s="21">
         <v>115</v>
@@ -11258,7 +11261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.5">
+    <row r="165" spans="1:6" ht="15">
       <c r="A165" s="1"/>
       <c r="B165" s="21">
         <v>116</v>
@@ -11277,7 +11280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.5">
+    <row r="166" spans="1:6" ht="15">
       <c r="A166" s="1"/>
       <c r="B166" s="21">
         <v>117</v>
@@ -11296,7 +11299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.5">
+    <row r="167" spans="1:6" ht="15">
       <c r="A167" s="1"/>
       <c r="B167" s="21">
         <v>118</v>
@@ -11315,7 +11318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.5">
+    <row r="168" spans="1:6" ht="15">
       <c r="A168" s="1"/>
       <c r="B168" s="21">
         <v>119</v>
@@ -11334,7 +11337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.5">
+    <row r="169" spans="1:6" ht="15">
       <c r="A169" s="1"/>
       <c r="B169" s="21">
         <v>120</v>
@@ -11353,7 +11356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.5">
+    <row r="170" spans="1:6" ht="15">
       <c r="A170" s="1"/>
       <c r="B170" s="21">
         <v>121</v>
@@ -11372,7 +11375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="14.5">
+    <row r="171" spans="1:6" ht="15">
       <c r="A171" s="1"/>
       <c r="B171" s="21">
         <v>122</v>
@@ -11391,7 +11394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.5">
+    <row r="172" spans="1:6" ht="15">
       <c r="A172" s="1"/>
       <c r="B172" s="21">
         <v>123</v>
@@ -11410,7 +11413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.5">
+    <row r="173" spans="1:6" ht="15">
       <c r="A173" s="1"/>
       <c r="B173" s="21">
         <v>124</v>
@@ -11429,7 +11432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.5">
+    <row r="174" spans="1:6" ht="15">
       <c r="A174" s="1"/>
       <c r="B174" s="21">
         <v>125</v>
@@ -11448,7 +11451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.5">
+    <row r="175" spans="1:6" ht="15">
       <c r="A175" s="1"/>
       <c r="B175" s="42">
         <v>126</v>
@@ -11467,7 +11470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="14.5">
+    <row r="176" spans="1:6" ht="15">
       <c r="A176" s="1"/>
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
@@ -11482,7 +11485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.5">
+    <row r="177" spans="1:6" ht="15">
       <c r="A177" s="1"/>
       <c r="B177" s="21">
         <v>127</v>
@@ -11501,7 +11504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.5">
+    <row r="178" spans="1:6" ht="15">
       <c r="A178" s="1"/>
       <c r="B178" s="21">
         <v>128</v>
@@ -11520,7 +11523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.5">
+    <row r="179" spans="1:6" ht="15">
       <c r="A179" s="1"/>
       <c r="B179" s="21">
         <v>129</v>
@@ -11539,7 +11542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.5">
+    <row r="180" spans="1:6" ht="15">
       <c r="A180" s="1"/>
       <c r="B180" s="42">
         <v>130</v>
@@ -11556,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.5">
+    <row r="181" spans="1:6" ht="15">
       <c r="A181" s="1"/>
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
@@ -11569,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.5">
+    <row r="182" spans="1:6" ht="15">
       <c r="A182" s="1"/>
       <c r="B182" s="21">
         <v>131</v>
@@ -11586,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.5">
+    <row r="183" spans="1:6" ht="15">
       <c r="A183" s="1"/>
       <c r="B183" s="21">
         <v>132</v>
@@ -11605,7 +11608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.5">
+    <row r="184" spans="1:6" ht="15">
       <c r="A184" s="1"/>
       <c r="B184" s="21">
         <v>133</v>
@@ -11624,7 +11627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.5">
+    <row r="185" spans="1:6" ht="15">
       <c r="A185" s="1"/>
       <c r="B185" s="21">
         <v>134</v>
@@ -11643,7 +11646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.5">
+    <row r="186" spans="1:6" ht="15">
       <c r="A186" s="1"/>
       <c r="B186" s="21">
         <v>135</v>
@@ -11662,7 +11665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="14.5">
+    <row r="187" spans="1:6" ht="15">
       <c r="A187" s="1"/>
       <c r="B187" s="21">
         <v>136</v>
@@ -11681,7 +11684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="14.5">
+    <row r="188" spans="1:6" ht="15">
       <c r="A188" s="1"/>
       <c r="B188" s="21">
         <v>137</v>
@@ -11700,7 +11703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.5">
+    <row r="189" spans="1:6" ht="15">
       <c r="A189" s="1"/>
       <c r="B189" s="21">
         <v>138</v>
@@ -11719,7 +11722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="14.5">
+    <row r="190" spans="1:6" ht="15">
       <c r="A190" s="1"/>
       <c r="B190" s="21">
         <v>139</v>
@@ -11738,7 +11741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.5">
+    <row r="191" spans="1:6" ht="15">
       <c r="A191" s="1"/>
       <c r="B191" s="42">
         <v>140</v>
@@ -11757,7 +11760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="14.5">
+    <row r="192" spans="1:6" ht="15">
       <c r="A192" s="1"/>
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
@@ -11772,7 +11775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.5">
+    <row r="193" spans="1:6" ht="15">
       <c r="A193" s="1"/>
       <c r="B193" s="21">
         <v>141</v>
@@ -11789,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.5">
+    <row r="194" spans="1:6" ht="15">
       <c r="A194" s="1"/>
       <c r="B194" s="21">
         <v>142</v>
@@ -11806,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.5">
+    <row r="195" spans="1:6" ht="15">
       <c r="A195" s="1"/>
       <c r="B195" s="21">
         <v>143</v>
@@ -11825,7 +11828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.5">
+    <row r="196" spans="1:6" ht="15">
       <c r="A196" s="1"/>
       <c r="B196" s="21">
         <v>144</v>
@@ -11844,7 +11847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.5">
+    <row r="197" spans="1:6" ht="15">
       <c r="A197" s="1"/>
       <c r="B197" s="42">
         <v>145</v>
@@ -11863,7 +11866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.5">
+    <row r="198" spans="1:6" ht="15">
       <c r="A198" s="1"/>
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
@@ -11878,7 +11881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.5">
+    <row r="199" spans="1:6" ht="15">
       <c r="A199" s="1"/>
       <c r="B199" s="21">
         <v>146</v>
@@ -11897,7 +11900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.5">
+    <row r="200" spans="1:6" ht="15">
       <c r="A200" s="1"/>
       <c r="B200" s="21">
         <v>147</v>
@@ -11914,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.5">
+    <row r="201" spans="1:6" ht="15">
       <c r="A201" s="1"/>
       <c r="B201" s="21">
         <v>148</v>
@@ -11933,7 +11936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.5">
+    <row r="202" spans="1:6" ht="15">
       <c r="A202" s="1"/>
       <c r="B202" s="21">
         <v>149</v>
@@ -11952,7 +11955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="14.5">
+    <row r="203" spans="1:6" ht="15">
       <c r="A203" s="1"/>
       <c r="B203" s="21">
         <v>150</v>
@@ -11969,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="14.5">
+    <row r="204" spans="1:6" ht="15">
       <c r="A204" s="1"/>
       <c r="B204" s="21">
         <v>151</v>
@@ -11986,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="14.5">
+    <row r="205" spans="1:6" ht="15">
       <c r="A205" s="1"/>
       <c r="B205" s="42">
         <v>152</v>
@@ -12005,7 +12008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.5">
+    <row r="206" spans="1:6" ht="15">
       <c r="A206" s="1"/>
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
@@ -12020,7 +12023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.5">
+    <row r="207" spans="1:6" ht="15">
       <c r="A207" s="1"/>
       <c r="B207" s="21">
         <v>153</v>
@@ -12039,7 +12042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.5">
+    <row r="208" spans="1:6" ht="15">
       <c r="A208" s="1"/>
       <c r="B208" s="42">
         <v>154</v>
@@ -12058,7 +12061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.5">
+    <row r="209" spans="1:6" ht="15">
       <c r="A209" s="1"/>
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
@@ -12073,7 +12076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="14.5">
+    <row r="210" spans="1:6" ht="15">
       <c r="A210" s="1"/>
       <c r="B210" s="42">
         <v>155</v>
@@ -12092,7 +12095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.5">
+    <row r="211" spans="1:6" ht="15">
       <c r="A211" s="1"/>
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
@@ -12107,7 +12110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14.5">
+    <row r="212" spans="1:6" ht="15">
       <c r="A212" s="1"/>
       <c r="B212" s="42">
         <v>156</v>
@@ -12126,7 +12129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="14.5">
+    <row r="213" spans="1:6" ht="15">
       <c r="A213" s="1"/>
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
@@ -12141,7 +12144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="14.5">
+    <row r="214" spans="1:6" ht="15">
       <c r="A214" s="1"/>
       <c r="B214" s="21">
         <v>157</v>
@@ -12160,7 +12163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="14.5">
+    <row r="215" spans="1:6" ht="15">
       <c r="A215" s="1"/>
       <c r="B215" s="21">
         <v>158</v>
@@ -12179,7 +12182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="14.5">
+    <row r="216" spans="1:6" ht="15">
       <c r="A216" s="1"/>
       <c r="B216" s="21">
         <v>159</v>
@@ -12198,7 +12201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="14.5">
+    <row r="217" spans="1:6" ht="15">
       <c r="A217" s="1"/>
       <c r="B217" s="42">
         <v>160</v>
@@ -12217,7 +12220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="14.5">
+    <row r="218" spans="1:6" ht="15">
       <c r="A218" s="1"/>
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
@@ -12232,7 +12235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.5">
+    <row r="219" spans="1:6" ht="15">
       <c r="A219" s="1"/>
       <c r="B219" s="21">
         <v>161</v>
@@ -12251,7 +12254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="14.5">
+    <row r="220" spans="1:6" ht="15">
       <c r="A220" s="1"/>
       <c r="B220" s="21">
         <v>162</v>
@@ -12270,7 +12273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="14.5">
+    <row r="221" spans="1:6" ht="15">
       <c r="A221" s="1"/>
       <c r="B221" s="21">
         <v>163</v>
@@ -12289,7 +12292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="14.5">
+    <row r="222" spans="1:6" ht="15">
       <c r="A222" s="1"/>
       <c r="B222" s="21">
         <v>164</v>
@@ -12308,7 +12311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="14.5">
+    <row r="223" spans="1:6" ht="15">
       <c r="A223" s="1"/>
       <c r="B223" s="21">
         <v>165</v>
@@ -12327,7 +12330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="14.5">
+    <row r="224" spans="1:6" ht="15">
       <c r="A224" s="1"/>
       <c r="B224" s="21">
         <v>166</v>
@@ -12346,7 +12349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="14.5">
+    <row r="225" spans="1:6" ht="15">
       <c r="A225" s="1"/>
       <c r="B225" s="21">
         <v>167</v>
@@ -12365,7 +12368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="14.5">
+    <row r="226" spans="1:6" ht="15">
       <c r="A226" s="1"/>
       <c r="B226" s="21">
         <v>168</v>
@@ -12384,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="14.5">
+    <row r="227" spans="1:6" ht="15">
       <c r="A227" s="1"/>
       <c r="B227" s="21">
         <v>169</v>
@@ -12403,7 +12406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="14.5">
+    <row r="228" spans="1:6" ht="15">
       <c r="A228" s="1"/>
       <c r="B228" s="21">
         <v>170</v>
@@ -12422,7 +12425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="14.5">
+    <row r="229" spans="1:6" ht="15">
       <c r="A229" s="1"/>
       <c r="B229" s="21">
         <v>171</v>
@@ -12441,7 +12444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="14.5">
+    <row r="230" spans="1:6" ht="15">
       <c r="A230" s="1"/>
       <c r="B230" s="21">
         <v>172</v>
@@ -12460,7 +12463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="14.5">
+    <row r="231" spans="1:6" ht="15">
       <c r="A231" s="1"/>
       <c r="B231" s="21">
         <v>173</v>
@@ -12479,7 +12482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="14.5">
+    <row r="232" spans="1:6" ht="15">
       <c r="A232" s="1"/>
       <c r="B232" s="21">
         <v>174</v>
@@ -12498,7 +12501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="14.5">
+    <row r="233" spans="1:6" ht="15">
       <c r="A233" s="1"/>
       <c r="B233" s="21">
         <v>175</v>
@@ -12517,7 +12520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="14.5">
+    <row r="234" spans="1:6" ht="15">
       <c r="A234" s="1"/>
       <c r="B234" s="21">
         <v>176</v>
@@ -12536,7 +12539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="14.5">
+    <row r="235" spans="1:6" ht="15">
       <c r="A235" s="1"/>
       <c r="B235" s="21">
         <v>177</v>
@@ -12555,7 +12558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="14.5">
+    <row r="236" spans="1:6" ht="15">
       <c r="A236" s="1"/>
       <c r="B236" s="21">
         <v>178</v>
@@ -12574,7 +12577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="14.5">
+    <row r="237" spans="1:6" ht="15">
       <c r="A237" s="1"/>
       <c r="B237" s="21">
         <v>179</v>
@@ -12593,7 +12596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="14.5">
+    <row r="238" spans="1:6" ht="15">
       <c r="A238" s="1"/>
       <c r="B238" s="21">
         <v>180</v>
@@ -12612,7 +12615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="14.5">
+    <row r="239" spans="1:6" ht="15">
       <c r="A239" s="1"/>
       <c r="B239" s="21">
         <v>181</v>
@@ -12631,7 +12634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="14.5">
+    <row r="240" spans="1:6" ht="15">
       <c r="A240" s="1"/>
       <c r="B240" s="42">
         <v>182</v>
@@ -12650,7 +12653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="14.5">
+    <row r="241" spans="1:6" ht="15">
       <c r="A241" s="1"/>
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
@@ -12665,7 +12668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="14.5">
+    <row r="242" spans="1:6" ht="15">
       <c r="A242" s="1"/>
       <c r="B242" s="42">
         <v>183</v>
@@ -12684,7 +12687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="14.5">
+    <row r="243" spans="1:6" ht="15">
       <c r="A243" s="1"/>
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
@@ -12699,7 +12702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="14.5">
+    <row r="244" spans="1:6" ht="15">
       <c r="A244" s="1"/>
       <c r="B244" s="21">
         <v>184</v>
@@ -12718,7 +12721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="14.5">
+    <row r="245" spans="1:6" ht="15">
       <c r="A245" s="1"/>
       <c r="B245" s="42">
         <v>185</v>
@@ -12737,7 +12740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14.5">
+    <row r="246" spans="1:6" ht="15">
       <c r="A246" s="1"/>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -12752,7 +12755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14.5">
+    <row r="247" spans="1:6" ht="15">
       <c r="A247" s="1"/>
       <c r="B247" s="21">
         <v>186</v>
@@ -12771,7 +12774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="14.5">
+    <row r="248" spans="1:6" ht="15">
       <c r="A248" s="1"/>
       <c r="B248" s="21">
         <v>187</v>
@@ -12790,7 +12793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="14.5">
+    <row r="249" spans="1:6" ht="15">
       <c r="A249" s="1"/>
       <c r="B249" s="21">
         <v>188</v>
@@ -12809,7 +12812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="14.5">
+    <row r="250" spans="1:6" ht="15">
       <c r="A250" s="1"/>
       <c r="B250" s="21">
         <v>189</v>
@@ -12828,7 +12831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="14.5">
+    <row r="251" spans="1:6" ht="15">
       <c r="A251" s="1"/>
       <c r="B251" s="42">
         <v>190</v>
@@ -12847,7 +12850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="14.5">
+    <row r="252" spans="1:6" ht="15">
       <c r="A252" s="1"/>
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
@@ -12860,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="14.5">
+    <row r="253" spans="1:6" ht="15">
       <c r="A253" s="1"/>
       <c r="B253" s="21">
         <v>191</v>
@@ -12879,7 +12882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="14.5">
+    <row r="254" spans="1:6" ht="15">
       <c r="A254" s="1"/>
       <c r="B254" s="21">
         <v>192</v>
@@ -12898,7 +12901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="14.5">
+    <row r="255" spans="1:6" ht="15">
       <c r="A255" s="1"/>
       <c r="B255" s="42">
         <v>193</v>
@@ -12917,7 +12920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="14.5">
+    <row r="256" spans="1:6" ht="15">
       <c r="A256" s="1"/>
       <c r="B256" s="43"/>
       <c r="C256" s="43"/>
@@ -12932,7 +12935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="14.5">
+    <row r="257" spans="1:6" ht="15">
       <c r="A257" s="1"/>
       <c r="B257" s="21">
         <v>194</v>
@@ -12951,7 +12954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="14.5">
+    <row r="258" spans="1:6" ht="15">
       <c r="A258" s="1"/>
       <c r="B258" s="21">
         <v>195</v>
@@ -12970,7 +12973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.5">
+    <row r="259" spans="1:6" ht="15">
       <c r="A259" s="1"/>
       <c r="B259" s="21">
         <v>196</v>
@@ -12989,7 +12992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.5">
+    <row r="260" spans="1:6" ht="15">
       <c r="A260" s="1"/>
       <c r="B260" s="21">
         <v>197</v>
@@ -13008,7 +13011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.5">
+    <row r="261" spans="1:6" ht="15">
       <c r="A261" s="1"/>
       <c r="B261" s="42">
         <v>198</v>
@@ -13027,7 +13030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.5">
+    <row r="262" spans="1:6" ht="15">
       <c r="A262" s="1"/>
       <c r="B262" s="43"/>
       <c r="C262" s="43"/>
@@ -13040,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.5">
+    <row r="263" spans="1:6" ht="15">
       <c r="A263" s="1"/>
       <c r="B263" s="21">
         <v>199</v>
@@ -13059,7 +13062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.5">
+    <row r="264" spans="1:6" ht="15">
       <c r="A264" s="1"/>
       <c r="B264" s="21">
         <v>200</v>
@@ -13078,7 +13081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.5">
+    <row r="265" spans="1:6" ht="15">
       <c r="A265" s="1"/>
       <c r="B265" s="21">
         <v>201</v>
@@ -13097,7 +13100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.5">
+    <row r="266" spans="1:6" ht="15">
       <c r="A266" s="1"/>
       <c r="B266" s="21">
         <v>202</v>
@@ -13116,7 +13119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.5">
+    <row r="267" spans="1:6" ht="15">
       <c r="A267" s="1"/>
       <c r="B267" s="21">
         <v>203</v>
@@ -13135,7 +13138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="14.5">
+    <row r="268" spans="1:6" ht="15">
       <c r="A268" s="1"/>
       <c r="B268" s="42">
         <v>204</v>
@@ -13154,7 +13157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="14.5">
+    <row r="269" spans="1:6" ht="15">
       <c r="A269" s="1"/>
       <c r="B269" s="43"/>
       <c r="C269" s="43"/>
@@ -13167,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="14.5">
+    <row r="270" spans="1:6" ht="15">
       <c r="A270" s="1"/>
       <c r="B270" s="21">
         <v>205</v>
@@ -13186,7 +13189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="14.5">
+    <row r="271" spans="1:6" ht="15">
       <c r="A271" s="1"/>
       <c r="B271" s="21">
         <v>206</v>
@@ -13205,7 +13208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.5">
+    <row r="272" spans="1:6" ht="15">
       <c r="A272" s="1"/>
       <c r="B272" s="21">
         <v>207</v>
@@ -13224,7 +13227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="14.5">
+    <row r="273" spans="1:6" ht="15">
       <c r="A273" s="1"/>
       <c r="B273" s="21">
         <v>208</v>
@@ -13243,7 +13246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="14.5">
+    <row r="274" spans="1:6" ht="15">
       <c r="A274" s="1"/>
       <c r="B274" s="21">
         <v>209</v>
@@ -13262,7 +13265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="14.5">
+    <row r="275" spans="1:6" ht="15">
       <c r="A275" s="1"/>
       <c r="B275" s="21">
         <v>210</v>
@@ -13281,7 +13284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="14.5">
+    <row r="276" spans="1:6" ht="15">
       <c r="A276" s="1"/>
       <c r="B276" s="21">
         <v>211</v>
@@ -13300,7 +13303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.5">
+    <row r="277" spans="1:6" ht="15">
       <c r="A277" s="1"/>
       <c r="B277" s="42">
         <v>212</v>
@@ -13319,7 +13322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.5">
+    <row r="278" spans="1:6" ht="15">
       <c r="A278" s="1"/>
       <c r="B278" s="43"/>
       <c r="C278" s="43"/>
@@ -13334,7 +13337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.5">
+    <row r="279" spans="1:6" ht="15">
       <c r="A279" s="1"/>
       <c r="B279" s="21">
         <v>213</v>
@@ -13353,7 +13356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="14.5">
+    <row r="280" spans="1:6" ht="15">
       <c r="A280" s="1"/>
       <c r="B280" s="21">
         <v>214</v>
@@ -13372,7 +13375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="14.5">
+    <row r="281" spans="1:6" ht="15">
       <c r="A281" s="1"/>
       <c r="B281" s="42">
         <v>215</v>
@@ -13391,7 +13394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="14.5">
+    <row r="282" spans="1:6" ht="15">
       <c r="A282" s="1"/>
       <c r="B282" s="43"/>
       <c r="C282" s="43"/>
@@ -13406,7 +13409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="14.5">
+    <row r="283" spans="1:6" ht="15">
       <c r="A283" s="1"/>
       <c r="B283" s="21">
         <v>216</v>
@@ -13425,7 +13428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="14.5">
+    <row r="284" spans="1:6" ht="15">
       <c r="A284" s="1"/>
       <c r="B284" s="21">
         <v>217</v>
@@ -13444,7 +13447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="14.5">
+    <row r="285" spans="1:6" ht="15">
       <c r="A285" s="1"/>
       <c r="B285" s="21">
         <v>218</v>
@@ -13463,7 +13466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.5">
+    <row r="286" spans="1:6" ht="15">
       <c r="A286" s="1"/>
       <c r="B286" s="21">
         <v>219</v>
@@ -13482,7 +13485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="14.5">
+    <row r="287" spans="1:6" ht="15">
       <c r="A287" s="1"/>
       <c r="B287" s="21">
         <v>220</v>
@@ -13501,7 +13504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="14.5">
+    <row r="288" spans="1:6" ht="15">
       <c r="A288" s="1"/>
       <c r="B288" s="21">
         <v>221</v>
@@ -13520,7 +13523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="14.5">
+    <row r="289" spans="1:6" ht="15">
       <c r="A289" s="1"/>
       <c r="B289" s="21">
         <v>222</v>
@@ -13539,7 +13542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="14.5">
+    <row r="290" spans="1:6" ht="15">
       <c r="A290" s="1"/>
       <c r="B290" s="21">
         <v>223</v>
@@ -13558,7 +13561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="14.5">
+    <row r="291" spans="1:6" ht="15">
       <c r="A291" s="1"/>
       <c r="B291" s="21">
         <v>224</v>
@@ -13577,7 +13580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="14.5">
+    <row r="292" spans="1:6" ht="15">
       <c r="A292" s="1"/>
       <c r="B292" s="21">
         <v>225</v>
@@ -13596,7 +13599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="14.5">
+    <row r="293" spans="1:6" ht="15">
       <c r="A293" s="1"/>
       <c r="B293" s="21">
         <v>226</v>
@@ -13615,7 +13618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="14.5">
+    <row r="294" spans="1:6" ht="15">
       <c r="A294" s="1"/>
       <c r="B294" s="21">
         <v>227</v>
@@ -13634,7 +13637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="14.5">
+    <row r="295" spans="1:6" ht="15">
       <c r="A295" s="1"/>
       <c r="B295" s="21">
         <v>228</v>
@@ -13653,7 +13656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="14.5">
+    <row r="296" spans="1:6" ht="15">
       <c r="A296" s="1"/>
       <c r="B296" s="21">
         <v>229</v>
@@ -13672,7 +13675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="14.5">
+    <row r="297" spans="1:6" ht="15">
       <c r="A297" s="1"/>
       <c r="B297" s="21">
         <v>230</v>
@@ -13691,7 +13694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="14.5">
+    <row r="298" spans="1:6" ht="15">
       <c r="A298" s="1"/>
       <c r="B298" s="21">
         <v>231</v>
@@ -13710,7 +13713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="14.5">
+    <row r="299" spans="1:6" ht="15">
       <c r="A299" s="1"/>
       <c r="B299" s="21">
         <v>232</v>
@@ -13727,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="14.5">
+    <row r="300" spans="1:6" ht="15">
       <c r="A300" s="1"/>
       <c r="B300" s="21">
         <v>233</v>
@@ -13744,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="14.5">
+    <row r="301" spans="1:6" ht="15">
       <c r="A301" s="1"/>
       <c r="B301" s="21">
         <v>234</v>
@@ -13761,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="14.5">
+    <row r="302" spans="1:6" ht="15">
       <c r="A302" s="1"/>
       <c r="B302" s="21">
         <v>235</v>
@@ -13780,7 +13783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="14.5">
+    <row r="303" spans="1:6" ht="15">
       <c r="A303" s="1"/>
       <c r="B303" s="21">
         <v>236</v>
@@ -13799,7 +13802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="14.5">
+    <row r="304" spans="1:6" ht="15">
       <c r="A304" s="1"/>
       <c r="B304" s="21">
         <v>237</v>
@@ -13818,7 +13821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="14.5">
+    <row r="305" spans="1:6" ht="15">
       <c r="A305" s="1"/>
       <c r="B305" s="21">
         <v>238</v>
@@ -13835,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="14.5">
+    <row r="306" spans="1:6" ht="15">
       <c r="A306" s="1"/>
       <c r="B306" s="21">
         <v>239</v>
@@ -13854,7 +13857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="14.5">
+    <row r="307" spans="1:6" ht="15">
       <c r="A307" s="1"/>
       <c r="B307" s="42">
         <v>240</v>
@@ -13873,7 +13876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="14.5">
+    <row r="308" spans="1:6" ht="15">
       <c r="A308" s="1"/>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -13888,7 +13891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="14.5">
+    <row r="309" spans="1:6" ht="15">
       <c r="A309" s="1"/>
       <c r="B309" s="42">
         <v>241</v>
@@ -13907,7 +13910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="14.5">
+    <row r="310" spans="1:6" ht="15">
       <c r="A310" s="1"/>
       <c r="B310" s="43"/>
       <c r="C310" s="43"/>
@@ -13922,7 +13925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="14.5">
+    <row r="311" spans="1:6" ht="15">
       <c r="A311" s="1"/>
       <c r="B311" s="21">
         <v>242</v>
@@ -13941,7 +13944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="14.5">
+    <row r="312" spans="1:6" ht="15">
       <c r="A312" s="1"/>
       <c r="B312" s="21">
         <v>243</v>
@@ -13960,7 +13963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="14.5">
+    <row r="313" spans="1:6" ht="15">
       <c r="A313" s="1"/>
       <c r="B313" s="21">
         <v>244</v>
@@ -13979,7 +13982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="14.5">
+    <row r="314" spans="1:6" ht="15">
       <c r="A314" s="1"/>
       <c r="B314" s="21">
         <v>245</v>
@@ -13998,7 +14001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="14.5">
+    <row r="315" spans="1:6" ht="15">
       <c r="A315" s="1"/>
       <c r="B315" s="21">
         <v>246</v>
@@ -14017,7 +14020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="14.5">
+    <row r="316" spans="1:6" ht="15">
       <c r="A316" s="1"/>
       <c r="B316" s="21">
         <v>247</v>
@@ -14036,7 +14039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="14.5">
+    <row r="317" spans="1:6" ht="15">
       <c r="A317" s="1"/>
       <c r="B317" s="21">
         <v>248</v>
@@ -14055,7 +14058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="14.5">
+    <row r="318" spans="1:6" ht="15">
       <c r="A318" s="1"/>
       <c r="B318" s="21">
         <v>249</v>
@@ -14074,7 +14077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="14.5">
+    <row r="319" spans="1:6" ht="15">
       <c r="A319" s="1"/>
       <c r="B319" s="21">
         <v>250</v>
@@ -14093,7 +14096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="14.5">
+    <row r="320" spans="1:6" ht="15">
       <c r="A320" s="1"/>
       <c r="B320" s="21">
         <v>251</v>
@@ -14112,7 +14115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="14.5">
+    <row r="321" spans="1:6" ht="15">
       <c r="A321" s="1"/>
       <c r="B321" s="21">
         <v>252</v>
@@ -14131,7 +14134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="14.5">
+    <row r="322" spans="1:6" ht="15">
       <c r="A322" s="1"/>
       <c r="B322" s="21">
         <v>253</v>
@@ -14150,7 +14153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="14.5">
+    <row r="323" spans="1:6" ht="15">
       <c r="A323" s="1"/>
       <c r="B323" s="21">
         <v>254</v>
@@ -14169,7 +14172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="14.5">
+    <row r="324" spans="1:6" ht="15">
       <c r="A324" s="1"/>
       <c r="B324" s="21">
         <v>255</v>
@@ -14188,7 +14191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="14.5">
+    <row r="325" spans="1:6" ht="15">
       <c r="A325" s="1"/>
       <c r="B325" s="21">
         <v>256</v>
@@ -14207,7 +14210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="14.5">
+    <row r="326" spans="1:6" ht="15">
       <c r="A326" s="1"/>
       <c r="B326" s="21">
         <v>257</v>
@@ -14226,7 +14229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.5">
+    <row r="327" spans="1:6" ht="15">
       <c r="A327" s="1"/>
       <c r="B327" s="21">
         <v>258</v>
@@ -14245,7 +14248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="14.5">
+    <row r="328" spans="1:6" ht="15">
       <c r="A328" s="1"/>
       <c r="B328" s="21">
         <v>259</v>
@@ -14264,7 +14267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="14.5">
+    <row r="329" spans="1:6" ht="15">
       <c r="A329" s="1"/>
       <c r="B329" s="21">
         <v>260</v>
@@ -14283,7 +14286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="14.5">
+    <row r="330" spans="1:6" ht="15">
       <c r="A330" s="1"/>
       <c r="B330" s="42">
         <v>261</v>
@@ -14302,7 +14305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="14.5">
+    <row r="331" spans="1:6" ht="15">
       <c r="A331" s="1"/>
       <c r="B331" s="43"/>
       <c r="C331" s="43"/>
@@ -14317,7 +14320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="14.5">
+    <row r="332" spans="1:6" ht="15">
       <c r="A332" s="1"/>
       <c r="B332" s="42">
         <v>262</v>
@@ -14334,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="14.5">
+    <row r="333" spans="1:6" ht="15">
       <c r="A333" s="1"/>
       <c r="B333" s="43"/>
       <c r="C333" s="43"/>
@@ -14347,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="14.5">
+    <row r="334" spans="1:6" ht="15">
       <c r="A334" s="1"/>
       <c r="B334" s="21">
         <v>263</v>
@@ -14364,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="14.5">
+    <row r="335" spans="1:6" ht="15">
       <c r="A335" s="1"/>
       <c r="B335" s="21">
         <v>264</v>
@@ -14383,7 +14386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="14.5">
+    <row r="336" spans="1:6" ht="15">
       <c r="A336" s="1"/>
       <c r="B336" s="21">
         <v>265</v>
@@ -14402,7 +14405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="14.5">
+    <row r="337" spans="1:6" ht="15">
       <c r="A337" s="1"/>
       <c r="B337" s="21">
         <v>266</v>
@@ -14417,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="14.5">
+    <row r="338" spans="1:6" ht="15">
       <c r="A338" s="1"/>
       <c r="B338" s="21">
         <v>267</v>
@@ -14436,7 +14439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="14.5">
+    <row r="339" spans="1:6" ht="15">
       <c r="A339" s="1"/>
       <c r="B339" s="21">
         <v>268</v>
@@ -14455,7 +14458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="14.5">
+    <row r="340" spans="1:6" ht="15">
       <c r="A340" s="1"/>
       <c r="B340" s="42">
         <v>269</v>
@@ -14474,7 +14477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="14.5">
+    <row r="341" spans="1:6" ht="15">
       <c r="A341" s="1"/>
       <c r="B341" s="43"/>
       <c r="C341" s="43"/>
@@ -14489,7 +14492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="14.5">
+    <row r="342" spans="1:6" ht="15">
       <c r="A342" s="1"/>
       <c r="B342" s="21">
         <v>270</v>
@@ -14506,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="14.5">
+    <row r="343" spans="1:6" ht="15">
       <c r="A343" s="1"/>
       <c r="B343" s="21">
         <v>271</v>
@@ -14525,7 +14528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="14.5">
+    <row r="344" spans="1:6" ht="15">
       <c r="A344" s="1"/>
       <c r="B344" s="21">
         <v>272</v>
@@ -14544,7 +14547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="14.5">
+    <row r="345" spans="1:6" ht="15">
       <c r="A345" s="1"/>
       <c r="B345" s="21">
         <v>273</v>
@@ -14563,7 +14566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="14.5">
+    <row r="346" spans="1:6" ht="15">
       <c r="A346" s="1"/>
       <c r="B346" s="42">
         <v>274</v>
@@ -14582,7 +14585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="14.5">
+    <row r="347" spans="1:6" ht="15">
       <c r="A347" s="1"/>
       <c r="B347" s="43"/>
       <c r="C347" s="43"/>
@@ -14597,7 +14600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="14.5">
+    <row r="348" spans="1:6" ht="15">
       <c r="A348" s="1"/>
       <c r="B348" s="21">
         <v>275</v>
@@ -14616,7 +14619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="14.5">
+    <row r="349" spans="1:6" ht="15">
       <c r="A349" s="1"/>
       <c r="B349" s="21">
         <v>276</v>
@@ -14635,7 +14638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="14.5">
+    <row r="350" spans="1:6" ht="15">
       <c r="A350" s="1"/>
       <c r="B350" s="21">
         <v>277</v>
@@ -14654,7 +14657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="14.5">
+    <row r="351" spans="1:6" ht="15">
       <c r="A351" s="1"/>
       <c r="B351" s="21">
         <v>278</v>
@@ -14673,7 +14676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="14.5">
+    <row r="352" spans="1:6" ht="15">
       <c r="A352" s="1"/>
       <c r="B352" s="21">
         <v>279</v>
@@ -14692,7 +14695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="14.5">
+    <row r="353" spans="1:6" ht="15">
       <c r="A353" s="1"/>
       <c r="B353" s="21">
         <v>280</v>
@@ -14711,7 +14714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="14.5">
+    <row r="354" spans="1:6" ht="15">
       <c r="A354" s="1"/>
       <c r="B354" s="21">
         <v>281</v>
@@ -14730,7 +14733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="14.5">
+    <row r="355" spans="1:6" ht="15">
       <c r="A355" s="1"/>
       <c r="B355" s="42">
         <v>282</v>
@@ -14749,7 +14752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="14.5">
+    <row r="356" spans="1:6" ht="15">
       <c r="A356" s="1"/>
       <c r="B356" s="43"/>
       <c r="C356" s="43"/>
@@ -14764,7 +14767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="14.5">
+    <row r="357" spans="1:6" ht="15">
       <c r="A357" s="1"/>
       <c r="B357" s="21">
         <v>283</v>
@@ -14783,7 +14786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="14.5">
+    <row r="358" spans="1:6" ht="15">
       <c r="A358" s="1"/>
       <c r="B358" s="21">
         <v>284</v>
@@ -14802,7 +14805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="14.5">
+    <row r="359" spans="1:6" ht="15">
       <c r="A359" s="1"/>
       <c r="B359" s="21">
         <v>285</v>
@@ -14821,7 +14824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="14.5">
+    <row r="360" spans="1:6" ht="15">
       <c r="A360" s="1"/>
       <c r="B360" s="21">
         <v>286</v>
@@ -14840,7 +14843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="14.5">
+    <row r="361" spans="1:6" ht="15">
       <c r="A361" s="1"/>
       <c r="B361" s="21">
         <v>287</v>
@@ -14859,7 +14862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="14.5">
+    <row r="362" spans="1:6" ht="15">
       <c r="A362" s="1"/>
       <c r="B362" s="21">
         <v>288</v>
@@ -14876,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="14.5">
+    <row r="363" spans="1:6" ht="15">
       <c r="A363" s="1"/>
       <c r="B363" s="21">
         <v>289</v>
@@ -14895,7 +14898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="14.5">
+    <row r="364" spans="1:6" ht="15">
       <c r="A364" s="1"/>
       <c r="B364" s="21">
         <v>290</v>
@@ -14912,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.5">
+    <row r="365" spans="1:6" ht="15">
       <c r="A365" s="1"/>
       <c r="B365" s="21">
         <v>291</v>
@@ -14929,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="14.5">
+    <row r="366" spans="1:6" ht="15">
       <c r="A366" s="1"/>
       <c r="B366" s="21">
         <v>292</v>
@@ -14948,7 +14951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="14.5">
+    <row r="367" spans="1:6" ht="15">
       <c r="A367" s="1"/>
       <c r="B367" s="21">
         <v>293</v>
@@ -14967,7 +14970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="14.5">
+    <row r="368" spans="1:6" ht="15">
       <c r="A368" s="1"/>
       <c r="B368" s="21">
         <v>294</v>
@@ -14984,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="14.5">
+    <row r="369" spans="1:6" ht="15">
       <c r="A369" s="1"/>
       <c r="B369" s="21">
         <v>295</v>
@@ -15003,7 +15006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="14.5">
+    <row r="370" spans="1:6" ht="15">
       <c r="A370" s="1"/>
       <c r="B370" s="21">
         <v>296</v>
@@ -15022,7 +15025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="14.5">
+    <row r="371" spans="1:6" ht="15">
       <c r="A371" s="1"/>
       <c r="B371" s="21">
         <v>297</v>
@@ -15039,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="14.5">
+    <row r="372" spans="1:6" ht="15">
       <c r="A372" s="1"/>
       <c r="B372" s="21">
         <v>298</v>
@@ -15058,7 +15061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="14.5">
+    <row r="373" spans="1:6" ht="15">
       <c r="A373" s="1"/>
       <c r="B373" s="21">
         <v>299</v>
@@ -15077,7 +15080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="14.5">
+    <row r="374" spans="1:6" ht="15">
       <c r="A374" s="1"/>
       <c r="B374" s="21">
         <v>300</v>
@@ -15096,7 +15099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="14.5">
+    <row r="375" spans="1:6" ht="15">
       <c r="A375" s="1"/>
       <c r="B375" s="21">
         <v>301</v>
@@ -15115,7 +15118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="14.5">
+    <row r="376" spans="1:6" ht="15">
       <c r="A376" s="1"/>
       <c r="B376" s="21">
         <v>302</v>
@@ -15134,7 +15137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="14.5">
+    <row r="377" spans="1:6" ht="15">
       <c r="A377" s="1"/>
       <c r="B377" s="42">
         <v>303</v>
@@ -15153,7 +15156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="14.5">
+    <row r="378" spans="1:6" ht="15">
       <c r="A378" s="1"/>
       <c r="B378" s="43"/>
       <c r="C378" s="43"/>
@@ -15168,7 +15171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="14.5">
+    <row r="379" spans="1:6" ht="15">
       <c r="A379" s="1"/>
       <c r="B379" s="21">
         <v>304</v>
@@ -15187,7 +15190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="14.5">
+    <row r="380" spans="1:6" ht="15">
       <c r="A380" s="1"/>
       <c r="B380" s="42">
         <v>305</v>
@@ -15206,7 +15209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="14.5">
+    <row r="381" spans="1:6" ht="15">
       <c r="A381" s="1"/>
       <c r="B381" s="43"/>
       <c r="C381" s="43"/>
@@ -15219,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="14.5">
+    <row r="382" spans="1:6" ht="15">
       <c r="A382" s="1"/>
       <c r="B382" s="21">
         <v>306</v>
@@ -15238,7 +15241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="14.5">
+    <row r="383" spans="1:6" ht="15">
       <c r="A383" s="1"/>
       <c r="B383" s="42">
         <v>307</v>
@@ -15257,7 +15260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="14.5">
+    <row r="384" spans="1:6" ht="15">
       <c r="A384" s="1"/>
       <c r="B384" s="43"/>
       <c r="C384" s="43"/>
@@ -15272,7 +15275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="14.5">
+    <row r="385" spans="1:6" ht="15">
       <c r="A385" s="1"/>
       <c r="B385" s="21">
         <v>308</v>
@@ -15291,7 +15294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="14.5">
+    <row r="386" spans="1:6" ht="15">
       <c r="A386" s="1"/>
       <c r="B386" s="21">
         <v>309</v>
@@ -15310,7 +15313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="14.5">
+    <row r="387" spans="1:6" ht="15">
       <c r="A387" s="1"/>
       <c r="B387" s="42">
         <v>310</v>
@@ -15329,7 +15332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="14.5">
+    <row r="388" spans="1:6" ht="15">
       <c r="A388" s="1"/>
       <c r="B388" s="43"/>
       <c r="C388" s="43"/>
@@ -15342,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="14.5">
+    <row r="389" spans="1:6" ht="15">
       <c r="A389" s="1"/>
       <c r="B389" s="42">
         <v>311</v>
@@ -15361,7 +15364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="14.5">
+    <row r="390" spans="1:6" ht="15">
       <c r="A390" s="1"/>
       <c r="B390" s="43"/>
       <c r="C390" s="43"/>
@@ -15376,7 +15379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="14.5">
+    <row r="391" spans="1:6" ht="15">
       <c r="A391" s="1"/>
       <c r="B391" s="21">
         <v>312</v>
@@ -15395,7 +15398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="14.5">
+    <row r="392" spans="1:6" ht="15">
       <c r="A392" s="1"/>
       <c r="B392" s="21">
         <v>313</v>
@@ -15414,7 +15417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="14.5">
+    <row r="393" spans="1:6" ht="15">
       <c r="A393" s="1"/>
       <c r="B393" s="21">
         <v>314</v>
@@ -15433,7 +15436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="14.5">
+    <row r="394" spans="1:6" ht="15">
       <c r="A394" s="1"/>
       <c r="B394" s="42">
         <v>315</v>
@@ -15452,7 +15455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="14.5">
+    <row r="395" spans="1:6" ht="15">
       <c r="A395" s="1"/>
       <c r="B395" s="43"/>
       <c r="C395" s="43"/>
@@ -15467,7 +15470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="14.5">
+    <row r="396" spans="1:6" ht="15">
       <c r="A396" s="1"/>
       <c r="B396" s="21">
         <v>316</v>
@@ -15486,7 +15489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="14.5">
+    <row r="397" spans="1:6" ht="15">
       <c r="A397" s="1"/>
       <c r="B397" s="21">
         <v>317</v>
@@ -15503,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="14.5">
+    <row r="398" spans="1:6" ht="15">
       <c r="A398" s="1"/>
       <c r="B398" s="21">
         <v>318</v>
@@ -15522,7 +15525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="14.5">
+    <row r="399" spans="1:6" ht="15">
       <c r="A399" s="1"/>
       <c r="B399" s="42">
         <v>319</v>
@@ -15541,7 +15544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="14.5">
+    <row r="400" spans="1:6" ht="15">
       <c r="A400" s="1"/>
       <c r="B400" s="43"/>
       <c r="C400" s="43"/>
@@ -15556,7 +15559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="14.5">
+    <row r="401" spans="1:6" ht="15">
       <c r="A401" s="1"/>
       <c r="B401" s="21">
         <v>320</v>
@@ -15575,7 +15578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="14.5">
+    <row r="402" spans="1:6" ht="15">
       <c r="A402" s="1"/>
       <c r="B402" s="42">
         <v>321</v>
@@ -15594,7 +15597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.5">
+    <row r="403" spans="1:6" ht="15">
       <c r="A403" s="1"/>
       <c r="B403" s="43"/>
       <c r="C403" s="43"/>
@@ -15609,7 +15612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="14.5">
+    <row r="404" spans="1:6" ht="15">
       <c r="A404" s="1"/>
       <c r="B404" s="21">
         <v>322</v>
@@ -15628,7 +15631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="14.5">
+    <row r="405" spans="1:6" ht="15">
       <c r="A405" s="1"/>
       <c r="B405" s="21">
         <v>323</v>
@@ -15647,7 +15650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="14.5">
+    <row r="406" spans="1:6" ht="15">
       <c r="A406" s="1"/>
       <c r="B406" s="21">
         <v>324</v>
@@ -15666,7 +15669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="14.5">
+    <row r="407" spans="1:6" ht="15">
       <c r="A407" s="1"/>
       <c r="B407" s="21">
         <v>325</v>
@@ -15685,7 +15688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="14.5">
+    <row r="408" spans="1:6" ht="15">
       <c r="A408" s="1"/>
       <c r="B408" s="42">
         <v>326</v>
@@ -15704,7 +15707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="14.5">
+    <row r="409" spans="1:6" ht="15">
       <c r="A409" s="1"/>
       <c r="B409" s="43"/>
       <c r="C409" s="43"/>
@@ -15719,7 +15722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="14.5">
+    <row r="410" spans="1:6" ht="15">
       <c r="A410" s="1"/>
       <c r="B410" s="42">
         <v>327</v>
@@ -15738,7 +15741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="14.5">
+    <row r="411" spans="1:6" ht="15">
       <c r="A411" s="1"/>
       <c r="B411" s="43"/>
       <c r="C411" s="43"/>
@@ -15753,7 +15756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="14.5">
+    <row r="412" spans="1:6" ht="15">
       <c r="A412" s="1"/>
       <c r="B412" s="21">
         <v>328</v>
@@ -15772,7 +15775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="14.5">
+    <row r="413" spans="1:6" ht="15">
       <c r="A413" s="1"/>
       <c r="B413" s="21">
         <v>329</v>
@@ -15791,7 +15794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="14.5">
+    <row r="414" spans="1:6" ht="15">
       <c r="A414" s="1"/>
       <c r="B414" s="21">
         <v>330</v>
@@ -15810,7 +15813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="14.5">
+    <row r="415" spans="1:6" ht="15">
       <c r="A415" s="1"/>
       <c r="B415" s="21">
         <v>331</v>
@@ -15829,7 +15832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="14.5">
+    <row r="416" spans="1:6" ht="15">
       <c r="A416" s="1"/>
       <c r="B416" s="21">
         <v>332</v>
@@ -15848,7 +15851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="14.5">
+    <row r="417" spans="1:6" ht="15">
       <c r="A417" s="1"/>
       <c r="B417" s="21">
         <v>333</v>
@@ -15867,7 +15870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="14.5">
+    <row r="418" spans="1:6" ht="15">
       <c r="A418" s="1"/>
       <c r="B418" s="21">
         <v>334</v>
@@ -15886,7 +15889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="14.5">
+    <row r="419" spans="1:6" ht="15">
       <c r="A419" s="1"/>
       <c r="B419" s="21">
         <v>335</v>
@@ -15905,7 +15908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="14.5">
+    <row r="420" spans="1:6" ht="15">
       <c r="A420" s="1"/>
       <c r="B420" s="21">
         <v>336</v>
@@ -15924,7 +15927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="14.5">
+    <row r="421" spans="1:6" ht="15">
       <c r="A421" s="1"/>
       <c r="B421" s="42">
         <v>337</v>
@@ -15943,7 +15946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="14.5">
+    <row r="422" spans="1:6" ht="15">
       <c r="A422" s="1"/>
       <c r="B422" s="43"/>
       <c r="C422" s="43"/>
@@ -15958,7 +15961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="14.5">
+    <row r="423" spans="1:6" ht="15">
       <c r="A423" s="1"/>
       <c r="B423" s="42">
         <v>338</v>
@@ -15977,7 +15980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="14.5">
+    <row r="424" spans="1:6" ht="15">
       <c r="A424" s="1"/>
       <c r="B424" s="43"/>
       <c r="C424" s="43"/>
@@ -15992,7 +15995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="14.5">
+    <row r="425" spans="1:6" ht="15">
       <c r="A425" s="1"/>
       <c r="B425" s="21">
         <v>339</v>
@@ -16011,7 +16014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="14.5">
+    <row r="426" spans="1:6" ht="15">
       <c r="A426" s="1"/>
       <c r="B426" s="21">
         <v>340</v>
@@ -16030,7 +16033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="14.5">
+    <row r="427" spans="1:6" ht="15">
       <c r="A427" s="1"/>
       <c r="B427" s="21">
         <v>341</v>
@@ -16049,7 +16052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="14.5">
+    <row r="428" spans="1:6" ht="15">
       <c r="A428" s="1"/>
       <c r="B428" s="42">
         <v>342</v>
@@ -16068,7 +16071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="14.5">
+    <row r="429" spans="1:6" ht="15">
       <c r="A429" s="1"/>
       <c r="B429" s="43"/>
       <c r="C429" s="43"/>
@@ -16083,7 +16086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="14.5">
+    <row r="430" spans="1:6" ht="15">
       <c r="A430" s="1"/>
       <c r="B430" s="21">
         <v>343</v>
@@ -16102,7 +16105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="14.5">
+    <row r="431" spans="1:6" ht="15">
       <c r="A431" s="1"/>
       <c r="B431" s="42">
         <v>344</v>
@@ -16121,7 +16124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="14.5">
+    <row r="432" spans="1:6" ht="15">
       <c r="A432" s="1"/>
       <c r="B432" s="43"/>
       <c r="C432" s="43"/>
@@ -16136,7 +16139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="14.5">
+    <row r="433" spans="1:6" ht="15">
       <c r="A433" s="1"/>
       <c r="B433" s="21">
         <v>345</v>
@@ -16155,7 +16158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="14.5">
+    <row r="434" spans="1:6" ht="15">
       <c r="A434" s="1"/>
       <c r="B434" s="21">
         <v>346</v>
@@ -16174,7 +16177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="14.5">
+    <row r="435" spans="1:6" ht="15">
       <c r="A435" s="1"/>
       <c r="B435" s="21">
         <v>347</v>
@@ -16193,7 +16196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="14.5">
+    <row r="436" spans="1:6" ht="15">
       <c r="A436" s="1"/>
       <c r="B436" s="21">
         <v>348</v>
@@ -16212,7 +16215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="14.5">
+    <row r="437" spans="1:6" ht="15">
       <c r="A437" s="1"/>
       <c r="B437" s="21">
         <v>349</v>
@@ -16231,7 +16234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="14.5">
+    <row r="438" spans="1:6" ht="15">
       <c r="A438" s="1"/>
       <c r="B438" s="21">
         <v>350</v>
@@ -16250,7 +16253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="14.5">
+    <row r="439" spans="1:6" ht="15">
       <c r="A439" s="1"/>
       <c r="B439" s="42">
         <v>351</v>
@@ -16269,7 +16272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="14.5">
+    <row r="440" spans="1:6" ht="15">
       <c r="A440" s="1"/>
       <c r="B440" s="43"/>
       <c r="C440" s="43"/>
@@ -16284,7 +16287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="14.5">
+    <row r="441" spans="1:6" ht="15">
       <c r="A441" s="1"/>
       <c r="B441" s="21">
         <v>352</v>
@@ -16303,7 +16306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="14.5">
+    <row r="442" spans="1:6" ht="15">
       <c r="A442" s="1"/>
       <c r="B442" s="21">
         <v>353</v>
@@ -16322,7 +16325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="14.5">
+    <row r="443" spans="1:6" ht="15">
       <c r="A443" s="1"/>
       <c r="B443" s="21">
         <v>354</v>
@@ -16341,7 +16344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="14.5">
+    <row r="444" spans="1:6" ht="15">
       <c r="A444" s="1"/>
       <c r="B444" s="21">
         <v>355</v>
@@ -16360,7 +16363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="14.5">
+    <row r="445" spans="1:6" ht="15">
       <c r="A445" s="1"/>
       <c r="B445" s="21">
         <v>356</v>
@@ -16379,7 +16382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="14.5">
+    <row r="446" spans="1:6" ht="15">
       <c r="A446" s="1"/>
       <c r="B446" s="21">
         <v>357</v>
@@ -16398,7 +16401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="14.5">
+    <row r="447" spans="1:6" ht="15">
       <c r="A447" s="1"/>
       <c r="B447" s="21">
         <v>358</v>
@@ -16417,7 +16420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="14.5">
+    <row r="448" spans="1:6" ht="15">
       <c r="A448" s="1"/>
       <c r="B448" s="21">
         <v>359</v>
@@ -16436,7 +16439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="14.5">
+    <row r="449" spans="1:6" ht="15">
       <c r="A449" s="1"/>
       <c r="B449" s="21">
         <v>360</v>
@@ -16455,7 +16458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="14.5">
+    <row r="450" spans="1:6" ht="15">
       <c r="A450" s="1"/>
       <c r="B450" s="21">
         <v>361</v>
@@ -16474,7 +16477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="14.5">
+    <row r="451" spans="1:6" ht="15">
       <c r="A451" s="1"/>
       <c r="B451" s="21">
         <v>362</v>
@@ -16493,7 +16496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="14.5">
+    <row r="452" spans="1:6" ht="15">
       <c r="A452" s="1"/>
       <c r="B452" s="21">
         <v>363</v>
@@ -16512,7 +16515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="14.5">
+    <row r="453" spans="1:6" ht="15">
       <c r="A453" s="1"/>
       <c r="B453" s="21">
         <v>364</v>
@@ -16531,7 +16534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="14.5">
+    <row r="454" spans="1:6" ht="15">
       <c r="A454" s="1"/>
       <c r="B454" s="21">
         <v>365</v>
@@ -16550,7 +16553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="14.5">
+    <row r="455" spans="1:6" ht="15">
       <c r="A455" s="1"/>
       <c r="B455" s="21">
         <v>366</v>
@@ -16569,7 +16572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="14.5">
+    <row r="456" spans="1:6" ht="15">
       <c r="A456" s="1"/>
       <c r="B456" s="42">
         <v>367</v>
@@ -16588,7 +16591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="14.5">
+    <row r="457" spans="1:6" ht="15">
       <c r="A457" s="1"/>
       <c r="B457" s="43"/>
       <c r="C457" s="43"/>
@@ -16603,7 +16606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="14.5">
+    <row r="458" spans="1:6" ht="15">
       <c r="A458" s="1"/>
       <c r="B458" s="21">
         <v>368</v>
@@ -16622,7 +16625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="14.5">
+    <row r="459" spans="1:6" ht="15">
       <c r="A459" s="1"/>
       <c r="B459" s="21">
         <v>369</v>
@@ -16641,7 +16644,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="14.5">
+    <row r="460" spans="1:6" ht="15">
       <c r="A460" s="1"/>
       <c r="B460" s="21">
         <v>370</v>
@@ -16660,7 +16663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="14.5">
+    <row r="461" spans="1:6" ht="15">
       <c r="A461" s="1"/>
       <c r="B461" s="21">
         <v>371</v>
@@ -16679,7 +16682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="14.5">
+    <row r="462" spans="1:6" ht="15">
       <c r="A462" s="1"/>
       <c r="B462" s="21">
         <v>372</v>
@@ -16698,7 +16701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="14.5">
+    <row r="463" spans="1:6" ht="15">
       <c r="A463" s="1"/>
       <c r="B463" s="21">
         <v>373</v>
@@ -16715,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="14.5">
+    <row r="464" spans="1:6" ht="15">
       <c r="A464" s="1"/>
       <c r="B464" s="21">
         <v>374</v>
@@ -16734,7 +16737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="14.5">
+    <row r="465" spans="1:6" ht="15">
       <c r="A465" s="1"/>
       <c r="B465" s="21">
         <v>375</v>
@@ -16753,7 +16756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="14.5">
+    <row r="466" spans="1:6" ht="15">
       <c r="A466" s="1"/>
       <c r="B466" s="42">
         <v>376</v>
@@ -16772,7 +16775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="14.5">
+    <row r="467" spans="1:6" ht="15">
       <c r="A467" s="1"/>
       <c r="B467" s="43"/>
       <c r="C467" s="43"/>
@@ -16787,7 +16790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="14.5">
+    <row r="468" spans="1:6" ht="15">
       <c r="A468" s="1"/>
       <c r="B468" s="21">
         <v>377</v>
@@ -16806,7 +16809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="14.5">
+    <row r="469" spans="1:6" ht="15">
       <c r="A469" s="1"/>
       <c r="B469" s="21">
         <v>378</v>
@@ -16825,7 +16828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="14.5">
+    <row r="470" spans="1:6" ht="15">
       <c r="A470" s="1"/>
       <c r="B470" s="21">
         <v>379</v>
@@ -16844,7 +16847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="14.5">
+    <row r="471" spans="1:6" ht="15">
       <c r="A471" s="1"/>
       <c r="B471" s="21">
         <v>380</v>
@@ -16863,7 +16866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="14.5">
+    <row r="472" spans="1:6" ht="15">
       <c r="A472" s="1"/>
       <c r="B472" s="21">
         <v>381</v>
@@ -16882,7 +16885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="14.5">
+    <row r="473" spans="1:6" ht="15">
       <c r="A473" s="1"/>
       <c r="B473" s="21">
         <v>382</v>
@@ -16901,7 +16904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="14.5">
+    <row r="474" spans="1:6" ht="15">
       <c r="A474" s="1"/>
       <c r="B474" s="21">
         <v>383</v>
@@ -16920,7 +16923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="14.5">
+    <row r="475" spans="1:6" ht="15">
       <c r="A475" s="1"/>
       <c r="B475" s="21">
         <v>384</v>
@@ -16939,7 +16942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="14.5">
+    <row r="476" spans="1:6" ht="15">
       <c r="A476" s="1"/>
       <c r="B476" s="21">
         <v>385</v>
@@ -16958,7 +16961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="14.5">
+    <row r="477" spans="1:6" ht="15">
       <c r="A477" s="1"/>
       <c r="B477" s="21">
         <v>386</v>
@@ -16977,7 +16980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="14.5">
+    <row r="478" spans="1:6" ht="15">
       <c r="A478" s="1"/>
       <c r="B478" s="21">
         <v>387</v>
@@ -16996,7 +16999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="14.5">
+    <row r="479" spans="1:6" ht="15">
       <c r="A479" s="1"/>
       <c r="B479" s="42">
         <v>388</v>
@@ -17015,7 +17018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="14.5">
+    <row r="480" spans="1:6" ht="15">
       <c r="A480" s="1"/>
       <c r="B480" s="43"/>
       <c r="C480" s="43"/>
@@ -17030,7 +17033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="14.5">
+    <row r="481" spans="1:6" ht="15">
       <c r="A481" s="1"/>
       <c r="B481" s="21">
         <v>389</v>
@@ -17049,7 +17052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="14.5">
+    <row r="482" spans="1:6" ht="15">
       <c r="A482" s="1"/>
       <c r="B482" s="21">
         <v>390</v>
@@ -17068,7 +17071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="14.5">
+    <row r="483" spans="1:6" ht="15">
       <c r="A483" s="1"/>
       <c r="B483" s="21">
         <v>391</v>
@@ -17087,7 +17090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="14.5">
+    <row r="484" spans="1:6" ht="15">
       <c r="A484" s="1"/>
       <c r="B484" s="42">
         <v>392</v>
@@ -17106,7 +17109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="14.5">
+    <row r="485" spans="1:6" ht="15">
       <c r="A485" s="1"/>
       <c r="B485" s="43"/>
       <c r="C485" s="43"/>
@@ -17121,7 +17124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="14.5">
+    <row r="486" spans="1:6" ht="15">
       <c r="A486" s="1"/>
       <c r="B486" s="21">
         <v>393</v>
@@ -17140,7 +17143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="14.5">
+    <row r="487" spans="1:6" ht="15">
       <c r="A487" s="1"/>
       <c r="B487" s="21">
         <v>394</v>
@@ -17159,7 +17162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="14.5">
+    <row r="488" spans="1:6" ht="15">
       <c r="A488" s="1"/>
       <c r="B488" s="21">
         <v>395</v>
@@ -17178,7 +17181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="14.5">
+    <row r="489" spans="1:6" ht="15">
       <c r="A489" s="1"/>
       <c r="B489" s="21">
         <v>396</v>
@@ -17197,7 +17200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="14.5">
+    <row r="490" spans="1:6" ht="15">
       <c r="A490" s="1"/>
       <c r="B490" s="21">
         <v>397</v>
@@ -17216,7 +17219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="14.5">
+    <row r="491" spans="1:6" ht="15">
       <c r="A491" s="1"/>
       <c r="B491" s="21">
         <v>398</v>
@@ -17235,7 +17238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="14.5">
+    <row r="492" spans="1:6" ht="15">
       <c r="A492" s="1"/>
       <c r="B492" s="21">
         <v>399</v>
@@ -17254,7 +17257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="14.5">
+    <row r="493" spans="1:6" ht="15">
       <c r="A493" s="1"/>
       <c r="B493" s="21">
         <v>400</v>
@@ -17273,7 +17276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="14.5">
+    <row r="494" spans="1:6" ht="15">
       <c r="A494" s="1"/>
       <c r="B494" s="42">
         <v>401</v>
@@ -17292,7 +17295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="14.5">
+    <row r="495" spans="1:6" ht="15">
       <c r="A495" s="1"/>
       <c r="B495" s="43"/>
       <c r="C495" s="43"/>
@@ -17305,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="14.5">
+    <row r="496" spans="1:6" ht="15">
       <c r="A496" s="1"/>
       <c r="B496" s="21">
         <v>402</v>
@@ -17324,7 +17327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="14.5">
+    <row r="497" spans="1:6" ht="15">
       <c r="A497" s="1"/>
       <c r="B497" s="21">
         <v>403</v>
@@ -17343,7 +17346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="14.5">
+    <row r="498" spans="1:6" ht="15">
       <c r="A498" s="1"/>
       <c r="B498" s="21">
         <v>404</v>
@@ -17362,7 +17365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="14.5">
+    <row r="499" spans="1:6" ht="15">
       <c r="A499" s="1"/>
       <c r="B499" s="42">
         <v>405</v>
@@ -17381,7 +17384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="14.5">
+    <row r="500" spans="1:6" ht="15">
       <c r="A500" s="1"/>
       <c r="B500" s="43"/>
       <c r="C500" s="43"/>
@@ -17396,7 +17399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="14.5">
+    <row r="501" spans="1:6" ht="15">
       <c r="A501" s="1"/>
       <c r="B501" s="21">
         <v>406</v>
@@ -17415,7 +17418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="14.5">
+    <row r="502" spans="1:6" ht="15">
       <c r="A502" s="1"/>
       <c r="B502" s="21">
         <v>407</v>
@@ -17434,7 +17437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="14.5">
+    <row r="503" spans="1:6" ht="15">
       <c r="A503" s="1"/>
       <c r="B503" s="21">
         <v>408</v>
@@ -17453,7 +17456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="14.5">
+    <row r="504" spans="1:6" ht="15">
       <c r="A504" s="1"/>
       <c r="B504" s="21">
         <v>409</v>
@@ -17472,7 +17475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="14.5">
+    <row r="505" spans="1:6" ht="15">
       <c r="A505" s="1"/>
       <c r="B505" s="21">
         <v>410</v>
@@ -17491,7 +17494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="14.5">
+    <row r="506" spans="1:6" ht="15">
       <c r="A506" s="1"/>
       <c r="B506" s="21">
         <v>411</v>
@@ -17510,7 +17513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="14.5">
+    <row r="507" spans="1:6" ht="15">
       <c r="A507" s="1"/>
       <c r="B507" s="21">
         <v>412</v>
@@ -17529,7 +17532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="14.5">
+    <row r="508" spans="1:6" ht="15">
       <c r="A508" s="1"/>
       <c r="B508" s="21">
         <v>413</v>
@@ -17548,7 +17551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="14.5">
+    <row r="509" spans="1:6" ht="15">
       <c r="A509" s="1"/>
       <c r="B509" s="21">
         <v>414</v>
@@ -17567,7 +17570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="14.5">
+    <row r="510" spans="1:6" ht="15">
       <c r="A510" s="1"/>
       <c r="B510" s="42">
         <v>415</v>
@@ -17586,7 +17589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="14.5">
+    <row r="511" spans="1:6" ht="15">
       <c r="A511" s="1"/>
       <c r="B511" s="43"/>
       <c r="C511" s="43"/>
@@ -17601,7 +17604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="14.5">
+    <row r="512" spans="1:6" ht="15">
       <c r="A512" s="1"/>
       <c r="B512" s="21">
         <v>416</v>
@@ -17620,7 +17623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="14.5">
+    <row r="513" spans="1:6" ht="15">
       <c r="A513" s="1"/>
       <c r="B513" s="21">
         <v>417</v>
@@ -17639,7 +17642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="14.5">
+    <row r="514" spans="1:6" ht="15">
       <c r="A514" s="1"/>
       <c r="B514" s="21">
         <v>418</v>
@@ -17658,7 +17661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="14.5">
+    <row r="515" spans="1:6" ht="15">
       <c r="A515" s="1"/>
       <c r="B515" s="21">
         <v>419</v>
@@ -17677,7 +17680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="14.5">
+    <row r="516" spans="1:6" ht="15">
       <c r="A516" s="1"/>
       <c r="B516" s="21">
         <v>420</v>
@@ -17696,7 +17699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="14.5">
+    <row r="517" spans="1:6" ht="15">
       <c r="A517" s="1"/>
       <c r="B517" s="21">
         <v>421</v>
@@ -17715,7 +17718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="14.5">
+    <row r="518" spans="1:6" ht="15">
       <c r="A518" s="1"/>
       <c r="B518" s="21">
         <v>422</v>
@@ -17734,7 +17737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="14.5">
+    <row r="519" spans="1:6" ht="15">
       <c r="A519" s="1"/>
       <c r="B519" s="21">
         <v>423</v>
@@ -17753,7 +17756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="14.5">
+    <row r="520" spans="1:6" ht="15">
       <c r="A520" s="1"/>
       <c r="B520" s="21">
         <v>424</v>
@@ -17772,7 +17775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="14.5">
+    <row r="521" spans="1:6" ht="15">
       <c r="A521" s="1"/>
       <c r="B521" s="21">
         <v>425</v>
@@ -17791,7 +17794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="14.5">
+    <row r="522" spans="1:6" ht="15">
       <c r="A522" s="1"/>
       <c r="B522" s="21">
         <v>426</v>
@@ -17810,7 +17813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="14.5">
+    <row r="523" spans="1:6" ht="15">
       <c r="A523" s="1"/>
       <c r="B523" s="21">
         <v>427</v>
@@ -17829,7 +17832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="14.5">
+    <row r="524" spans="1:6" ht="15">
       <c r="A524" s="1"/>
       <c r="B524" s="21">
         <v>428</v>
@@ -17848,7 +17851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="14.5">
+    <row r="525" spans="1:6" ht="15">
       <c r="A525" s="1"/>
       <c r="B525" s="21">
         <v>429</v>
@@ -17867,7 +17870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="14.5">
+    <row r="526" spans="1:6" ht="15">
       <c r="A526" s="1"/>
       <c r="B526" s="21">
         <v>430</v>
@@ -17886,7 +17889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="14.5">
+    <row r="527" spans="1:6" ht="15">
       <c r="A527" s="1"/>
       <c r="B527" s="21">
         <v>431</v>
@@ -17905,7 +17908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="14.5">
+    <row r="528" spans="1:6" ht="15">
       <c r="A528" s="1"/>
       <c r="B528" s="21">
         <v>432</v>
@@ -17924,7 +17927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="14.5">
+    <row r="529" spans="1:6" ht="15">
       <c r="A529" s="1"/>
       <c r="B529" s="21">
         <v>433</v>
@@ -17943,7 +17946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="14.5">
+    <row r="530" spans="1:6" ht="15">
       <c r="A530" s="1"/>
       <c r="B530" s="21">
         <v>434</v>
@@ -17962,7 +17965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="14.5">
+    <row r="531" spans="1:6" ht="15">
       <c r="A531" s="1"/>
       <c r="B531" s="21">
         <v>435</v>
@@ -17981,7 +17984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="14.5">
+    <row r="532" spans="1:6" ht="15">
       <c r="A532" s="1"/>
       <c r="B532" s="21">
         <v>436</v>
@@ -18000,7 +18003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="14.5">
+    <row r="533" spans="1:6" ht="15">
       <c r="A533" s="1"/>
       <c r="B533" s="21">
         <v>437</v>
@@ -18019,7 +18022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="14.5">
+    <row r="534" spans="1:6" ht="15">
       <c r="A534" s="1"/>
       <c r="B534" s="21">
         <v>438</v>
@@ -18038,7 +18041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="14.5">
+    <row r="535" spans="1:6" ht="15">
       <c r="A535" s="1"/>
       <c r="B535" s="21">
         <v>439</v>
@@ -18057,7 +18060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="14.5">
+    <row r="536" spans="1:6" ht="15">
       <c r="A536" s="1"/>
       <c r="B536" s="21">
         <v>440</v>
@@ -18076,7 +18079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="14.5">
+    <row r="537" spans="1:6" ht="15">
       <c r="A537" s="1"/>
       <c r="B537" s="21">
         <v>441</v>
@@ -18095,7 +18098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="14.5">
+    <row r="538" spans="1:6" ht="15">
       <c r="A538" s="1"/>
       <c r="B538" s="42">
         <v>442</v>
@@ -18114,7 +18117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="14.5">
+    <row r="539" spans="1:6" ht="15">
       <c r="A539" s="1"/>
       <c r="B539" s="43"/>
       <c r="C539" s="43"/>
@@ -18129,7 +18132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="14.5">
+    <row r="540" spans="1:6" ht="15">
       <c r="A540" s="1"/>
       <c r="B540" s="21">
         <v>443</v>
@@ -18148,7 +18151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="14.5">
+    <row r="541" spans="1:6" ht="15">
       <c r="A541" s="1"/>
       <c r="B541" s="21">
         <v>444</v>
@@ -18167,7 +18170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="14.5">
+    <row r="542" spans="1:6" ht="15">
       <c r="A542" s="1"/>
       <c r="B542" s="21">
         <v>445</v>
@@ -18186,7 +18189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="14.5">
+    <row r="543" spans="1:6" ht="15">
       <c r="A543" s="1"/>
       <c r="B543" s="21">
         <v>446</v>
@@ -18205,7 +18208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="14.5">
+    <row r="544" spans="1:6" ht="15">
       <c r="A544" s="1"/>
       <c r="B544" s="21">
         <v>447</v>
@@ -18224,7 +18227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="14.5">
+    <row r="545" spans="1:6" ht="15">
       <c r="A545" s="1"/>
       <c r="B545" s="21">
         <v>448</v>
@@ -18243,7 +18246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="14.5">
+    <row r="546" spans="1:6" ht="15">
       <c r="A546" s="1"/>
       <c r="B546" s="42">
         <v>449</v>
@@ -18262,7 +18265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="14.5">
+    <row r="547" spans="1:6" ht="15">
       <c r="A547" s="1"/>
       <c r="B547" s="43"/>
       <c r="C547" s="43"/>
@@ -18277,7 +18280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="14.5">
+    <row r="548" spans="1:6" ht="15">
       <c r="A548" s="1"/>
       <c r="B548" s="21">
         <v>450</v>
@@ -18296,7 +18299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="14.5">
+    <row r="549" spans="1:6" ht="15">
       <c r="A549" s="1"/>
       <c r="B549" s="42">
         <v>451</v>
@@ -18315,7 +18318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="14.5">
+    <row r="550" spans="1:6" ht="15">
       <c r="A550" s="1"/>
       <c r="B550" s="43"/>
       <c r="C550" s="43"/>
@@ -18330,7 +18333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="14.5">
+    <row r="551" spans="1:6" ht="15">
       <c r="A551" s="1"/>
       <c r="B551" s="21">
         <v>452</v>
@@ -18349,7 +18352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="14.5">
+    <row r="552" spans="1:6" ht="15">
       <c r="A552" s="1"/>
       <c r="B552" s="21">
         <v>453</v>
@@ -18368,7 +18371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="14.5">
+    <row r="553" spans="1:6" ht="15">
       <c r="A553" s="1"/>
       <c r="B553" s="21">
         <v>454</v>
@@ -18387,7 +18390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="14.5">
+    <row r="554" spans="1:6" ht="15">
       <c r="A554" s="1"/>
       <c r="B554" s="21">
         <v>455</v>
@@ -18406,7 +18409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="14.5">
+    <row r="555" spans="1:6" ht="15">
       <c r="A555" s="1"/>
       <c r="B555" s="21">
         <v>456</v>
@@ -18423,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="14.5">
+    <row r="556" spans="1:6" ht="15">
       <c r="A556" s="1"/>
       <c r="B556" s="21">
         <v>457</v>
@@ -18442,7 +18445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="14.5">
+    <row r="557" spans="1:6" ht="15">
       <c r="A557" s="1"/>
       <c r="B557" s="21">
         <v>458</v>
@@ -18461,7 +18464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="14.5">
+    <row r="558" spans="1:6" ht="15">
       <c r="A558" s="1"/>
       <c r="B558" s="21">
         <v>459</v>
@@ -18480,7 +18483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="14.5">
+    <row r="559" spans="1:6" ht="15">
       <c r="A559" s="1"/>
       <c r="B559" s="21">
         <v>460</v>
@@ -18499,7 +18502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="14.5">
+    <row r="560" spans="1:6" ht="15">
       <c r="A560" s="1"/>
       <c r="B560" s="21">
         <v>461</v>
@@ -18518,7 +18521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="14.5">
+    <row r="561" spans="1:6" ht="15">
       <c r="A561" s="1"/>
       <c r="B561" s="21">
         <v>462</v>
@@ -18537,7 +18540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="14.5">
+    <row r="562" spans="1:6" ht="15">
       <c r="A562" s="1"/>
       <c r="B562" s="21">
         <v>463</v>
@@ -18554,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="14.5">
+    <row r="563" spans="1:6" ht="15">
       <c r="A563" s="1"/>
       <c r="B563" s="21">
         <v>464</v>
@@ -18573,7 +18576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="14.5">
+    <row r="564" spans="1:6" ht="15">
       <c r="A564" s="1"/>
       <c r="B564" s="21">
         <v>465</v>
@@ -18592,7 +18595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="14.5">
+    <row r="565" spans="1:6" ht="15">
       <c r="A565" s="1"/>
       <c r="B565" s="21">
         <v>466</v>
@@ -18611,7 +18614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="14.5">
+    <row r="566" spans="1:6" ht="15">
       <c r="A566" s="1"/>
       <c r="B566" s="21">
         <v>467</v>
@@ -18630,7 +18633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="14.5">
+    <row r="567" spans="1:6" ht="15">
       <c r="A567" s="1"/>
       <c r="B567" s="42">
         <v>468</v>
@@ -18649,7 +18652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="14.5">
+    <row r="568" spans="1:6" ht="15">
       <c r="A568" s="1"/>
       <c r="B568" s="43"/>
       <c r="C568" s="43"/>
@@ -18664,7 +18667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="14.5">
+    <row r="569" spans="1:6" ht="15">
       <c r="A569" s="1"/>
       <c r="B569" s="21">
         <v>469</v>
@@ -18683,7 +18686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="14.5">
+    <row r="570" spans="1:6" ht="15">
       <c r="A570" s="1"/>
       <c r="B570" s="21">
         <v>470</v>
@@ -18702,7 +18705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="14.5">
+    <row r="571" spans="1:6" ht="15">
       <c r="A571" s="1"/>
       <c r="B571" s="42">
         <v>471</v>
@@ -18721,7 +18724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="14.5">
+    <row r="572" spans="1:6" ht="15">
       <c r="A572" s="1"/>
       <c r="B572" s="43"/>
       <c r="C572" s="43"/>
@@ -18736,7 +18739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="14.5">
+    <row r="573" spans="1:6" ht="15">
       <c r="A573" s="1"/>
       <c r="B573" s="21">
         <v>472</v>
@@ -18755,7 +18758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="14.5">
+    <row r="574" spans="1:6" ht="15">
       <c r="A574" s="1"/>
       <c r="B574" s="21">
         <v>473</v>
@@ -18774,7 +18777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="14.5">
+    <row r="575" spans="1:6" ht="15">
       <c r="A575" s="1"/>
       <c r="B575" s="21">
         <v>474</v>
@@ -18793,7 +18796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="14.5">
+    <row r="576" spans="1:6" ht="15">
       <c r="A576" s="1"/>
       <c r="B576" s="21">
         <v>475</v>
@@ -18812,7 +18815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="14.5">
+    <row r="577" spans="1:6" ht="15">
       <c r="A577" s="1"/>
       <c r="B577" s="21">
         <v>476</v>
@@ -18831,7 +18834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="14.5">
+    <row r="578" spans="1:6" ht="15">
       <c r="A578" s="1"/>
       <c r="B578" s="21">
         <v>477</v>
@@ -18850,7 +18853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="14.5">
+    <row r="579" spans="1:6" ht="15">
       <c r="A579" s="1"/>
       <c r="B579" s="21">
         <v>478</v>
@@ -18869,7 +18872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="14.5">
+    <row r="580" spans="1:6" ht="15">
       <c r="A580" s="1"/>
       <c r="B580" s="21">
         <v>479</v>
@@ -18888,7 +18891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="14.5">
+    <row r="581" spans="1:6" ht="15">
       <c r="A581" s="1"/>
       <c r="B581" s="21">
         <v>480</v>
@@ -18907,7 +18910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="14.5">
+    <row r="582" spans="1:6" ht="15">
       <c r="A582" s="1"/>
       <c r="B582" s="42">
         <v>481</v>
@@ -18926,7 +18929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="14.5">
+    <row r="583" spans="1:6" ht="15">
       <c r="A583" s="1"/>
       <c r="B583" s="43"/>
       <c r="C583" s="43"/>
@@ -18941,7 +18944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="14.5">
+    <row r="584" spans="1:6" ht="15">
       <c r="A584" s="1"/>
       <c r="B584" s="21">
         <v>482</v>
@@ -18960,7 +18963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="14.5">
+    <row r="585" spans="1:6" ht="15">
       <c r="A585" s="1"/>
       <c r="B585" s="21">
         <v>483</v>
@@ -18979,7 +18982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="14.5">
+    <row r="586" spans="1:6" ht="15">
       <c r="A586" s="1"/>
       <c r="B586" s="21">
         <v>484</v>
@@ -18998,7 +19001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="14.5">
+    <row r="587" spans="1:6" ht="15">
       <c r="A587" s="1"/>
       <c r="B587" s="21">
         <v>485</v>
@@ -19017,7 +19020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="14.5">
+    <row r="588" spans="1:6" ht="15">
       <c r="A588" s="1"/>
       <c r="B588" s="21">
         <v>486</v>
@@ -19036,7 +19039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="14.5">
+    <row r="589" spans="1:6" ht="15">
       <c r="A589" s="1"/>
       <c r="B589" s="21">
         <v>487</v>
@@ -19055,7 +19058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="14.5">
+    <row r="590" spans="1:6" ht="15">
       <c r="A590" s="1"/>
       <c r="B590" s="21">
         <v>488</v>
@@ -19074,7 +19077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="14.5">
+    <row r="591" spans="1:6" ht="15">
       <c r="A591" s="1"/>
       <c r="B591" s="21">
         <v>489</v>
@@ -19093,7 +19096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="14.5">
+    <row r="592" spans="1:6" ht="15">
       <c r="A592" s="1"/>
       <c r="B592" s="21">
         <v>490</v>
@@ -19112,7 +19115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="14.5">
+    <row r="593" spans="1:6" ht="15">
       <c r="A593" s="1"/>
       <c r="B593" s="21">
         <v>491</v>
@@ -19131,7 +19134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="14.5">
+    <row r="594" spans="1:6" ht="15">
       <c r="A594" s="1"/>
       <c r="B594" s="21">
         <v>492</v>
@@ -19150,7 +19153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="14.5">
+    <row r="595" spans="1:6" ht="15">
       <c r="A595" s="1"/>
       <c r="B595" s="21">
         <v>493</v>
@@ -19169,7 +19172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="14.5">
+    <row r="596" spans="1:6" ht="15">
       <c r="A596" s="1"/>
       <c r="B596" s="21">
         <v>494</v>
@@ -19188,7 +19191,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="14.5">
+    <row r="597" spans="1:6" ht="15">
       <c r="A597" s="1"/>
       <c r="B597" s="21">
         <v>495</v>
@@ -19207,7 +19210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="14.5">
+    <row r="598" spans="1:6" ht="15">
       <c r="A598" s="1"/>
       <c r="B598" s="21">
         <v>496</v>
@@ -19226,7 +19229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="14.5">
+    <row r="599" spans="1:6" ht="15">
       <c r="A599" s="1"/>
       <c r="B599" s="21">
         <v>497</v>
@@ -19245,7 +19248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="14.5">
+    <row r="600" spans="1:6" ht="15">
       <c r="A600" s="1"/>
       <c r="B600" s="21">
         <v>498</v>
@@ -19264,7 +19267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="14.5">
+    <row r="601" spans="1:6" ht="15">
       <c r="A601" s="1"/>
       <c r="B601" s="21">
         <v>499</v>
@@ -19283,7 +19286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="14.5">
+    <row r="602" spans="1:6" ht="15">
       <c r="A602" s="1"/>
       <c r="B602" s="21">
         <v>500</v>
@@ -19302,7 +19305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="14.5">
+    <row r="603" spans="1:6" ht="15">
       <c r="A603" s="1"/>
       <c r="B603" s="21">
         <v>501</v>
@@ -19321,7 +19324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="14.5">
+    <row r="604" spans="1:6" ht="15">
       <c r="A604" s="1"/>
       <c r="B604" s="21">
         <v>502</v>
@@ -19340,7 +19343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="14.5">
+    <row r="605" spans="1:6" ht="15">
       <c r="A605" s="1"/>
       <c r="B605" s="21">
         <v>503</v>
@@ -19359,7 +19362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="14.5">
+    <row r="606" spans="1:6" ht="15">
       <c r="A606" s="1"/>
       <c r="B606" s="42">
         <v>504</v>
@@ -19378,7 +19381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="14.5">
+    <row r="607" spans="1:6" ht="15">
       <c r="A607" s="1"/>
       <c r="B607" s="43"/>
       <c r="C607" s="43"/>
@@ -19393,7 +19396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="14.5">
+    <row r="608" spans="1:6" ht="15">
       <c r="A608" s="1"/>
       <c r="B608" s="21">
         <v>505</v>
@@ -19412,7 +19415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="14.5">
+    <row r="609" spans="1:6" ht="15">
       <c r="A609" s="1"/>
       <c r="B609" s="21">
         <v>506</v>
@@ -19431,7 +19434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="14.5">
+    <row r="610" spans="1:6" ht="15">
       <c r="A610" s="1"/>
       <c r="B610" s="21">
         <v>507</v>
@@ -19450,7 +19453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="14.5">
+    <row r="611" spans="1:6" ht="15">
       <c r="A611" s="1"/>
       <c r="B611" s="21">
         <v>508</v>
@@ -19469,7 +19472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="14.5">
+    <row r="612" spans="1:6" ht="15">
       <c r="A612" s="1"/>
       <c r="B612" s="21">
         <v>509</v>
@@ -19488,7 +19491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="14.5">
+    <row r="613" spans="1:6" ht="15">
       <c r="A613" s="1"/>
       <c r="B613" s="21">
         <v>510</v>
@@ -19507,7 +19510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="14.5">
+    <row r="614" spans="1:6" ht="15">
       <c r="A614" s="1"/>
       <c r="B614" s="21">
         <v>511</v>
@@ -19526,7 +19529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="14.5">
+    <row r="615" spans="1:6" ht="15">
       <c r="A615" s="1"/>
       <c r="B615" s="21">
         <v>512</v>
@@ -19545,7 +19548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="14.5">
+    <row r="616" spans="1:6" ht="15">
       <c r="A616" s="1"/>
       <c r="B616" s="21">
         <v>513</v>
@@ -19564,7 +19567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="14.5">
+    <row r="617" spans="1:6" ht="15">
       <c r="A617" s="1"/>
       <c r="B617" s="21">
         <v>514</v>
@@ -19583,7 +19586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="14.5">
+    <row r="618" spans="1:6" ht="15">
       <c r="A618" s="1"/>
       <c r="B618" s="21">
         <v>515</v>
@@ -19602,7 +19605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="14.5">
+    <row r="619" spans="1:6" ht="15">
       <c r="A619" s="1"/>
       <c r="B619" s="21">
         <v>516</v>
@@ -19621,7 +19624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="14.5">
+    <row r="620" spans="1:6" ht="15">
       <c r="A620" s="1"/>
       <c r="B620" s="21">
         <v>517</v>
@@ -19640,7 +19643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="14.5">
+    <row r="621" spans="1:6" ht="15">
       <c r="A621" s="1"/>
       <c r="B621" s="21">
         <v>518</v>
@@ -19659,7 +19662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="14.5">
+    <row r="622" spans="1:6" ht="15">
       <c r="A622" s="1"/>
       <c r="B622" s="21">
         <v>519</v>
@@ -19678,7 +19681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="14.5">
+    <row r="623" spans="1:6" ht="15">
       <c r="A623" s="1"/>
       <c r="B623" s="21">
         <v>520</v>
@@ -19697,7 +19700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="14.5">
+    <row r="624" spans="1:6" ht="15">
       <c r="A624" s="1"/>
       <c r="B624" s="21">
         <v>521</v>
@@ -19716,7 +19719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="14.5">
+    <row r="625" spans="1:6" ht="15">
       <c r="A625" s="1"/>
       <c r="B625" s="21">
         <v>522</v>
@@ -19735,7 +19738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="14.5">
+    <row r="626" spans="1:6" ht="15">
       <c r="A626" s="1"/>
       <c r="B626" s="21">
         <v>523</v>
@@ -19754,7 +19757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="14.5">
+    <row r="627" spans="1:6" ht="15">
       <c r="A627" s="1"/>
       <c r="B627" s="42">
         <v>524</v>
@@ -19773,7 +19776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="14.5">
+    <row r="628" spans="1:6" ht="15">
       <c r="A628" s="1"/>
       <c r="B628" s="43"/>
       <c r="C628" s="43"/>
@@ -19788,7 +19791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="14.5">
+    <row r="629" spans="1:6" ht="15">
       <c r="A629" s="1"/>
       <c r="B629" s="21">
         <v>525</v>
@@ -19807,7 +19810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="14.5">
+    <row r="630" spans="1:6" ht="15">
       <c r="A630" s="1"/>
       <c r="B630" s="21">
         <v>526</v>
@@ -19826,7 +19829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="14.5">
+    <row r="631" spans="1:6" ht="15">
       <c r="A631" s="1"/>
       <c r="B631" s="21">
         <v>527</v>
@@ -19845,7 +19848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="14.5">
+    <row r="632" spans="1:6" ht="15">
       <c r="A632" s="1"/>
       <c r="B632" s="21">
         <v>528</v>
@@ -19864,7 +19867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="14.5">
+    <row r="633" spans="1:6" ht="15">
       <c r="A633" s="1"/>
       <c r="B633" s="21">
         <v>529</v>
@@ -19883,7 +19886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="14.5">
+    <row r="634" spans="1:6" ht="15">
       <c r="A634" s="1"/>
       <c r="B634" s="21">
         <v>530</v>
@@ -19902,7 +19905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="14.5">
+    <row r="635" spans="1:6" ht="15">
       <c r="A635" s="1"/>
       <c r="B635" s="21">
         <v>531</v>
@@ -19921,7 +19924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="14.5">
+    <row r="636" spans="1:6" ht="15">
       <c r="A636" s="1"/>
       <c r="B636" s="42">
         <v>532</v>
@@ -19940,7 +19943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="14.5">
+    <row r="637" spans="1:6" ht="15">
       <c r="A637" s="1"/>
       <c r="B637" s="43"/>
       <c r="C637" s="43"/>
@@ -19955,7 +19958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="14.5">
+    <row r="638" spans="1:6" ht="15">
       <c r="A638" s="1"/>
       <c r="B638" s="21">
         <v>533</v>
@@ -19974,7 +19977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="14.5">
+    <row r="639" spans="1:6" ht="15">
       <c r="A639" s="1"/>
       <c r="B639" s="21">
         <v>534</v>
@@ -19993,7 +19996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="14.5">
+    <row r="640" spans="1:6" ht="15">
       <c r="A640" s="1"/>
       <c r="B640" s="21">
         <v>535</v>
@@ -20012,7 +20015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="14.5">
+    <row r="641" spans="1:6" ht="15">
       <c r="A641" s="1"/>
       <c r="B641" s="42">
         <v>536</v>
@@ -20031,7 +20034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="14.5">
+    <row r="642" spans="1:6" ht="15">
       <c r="A642" s="1"/>
       <c r="B642" s="43"/>
       <c r="C642" s="43"/>
@@ -20046,7 +20049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="14.5">
+    <row r="643" spans="1:6" ht="15">
       <c r="A643" s="1"/>
       <c r="B643" s="21">
         <v>537</v>
@@ -20065,7 +20068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="14.5">
+    <row r="644" spans="1:6" ht="15">
       <c r="A644" s="1"/>
       <c r="B644" s="21">
         <v>538</v>
@@ -20084,7 +20087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="14.5">
+    <row r="645" spans="1:6" ht="15">
       <c r="A645" s="1"/>
       <c r="B645" s="21">
         <v>539</v>
@@ -20103,7 +20106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="14.5">
+    <row r="646" spans="1:6" ht="15">
       <c r="A646" s="1"/>
       <c r="B646" s="21">
         <v>540</v>
@@ -20122,7 +20125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="14.5">
+    <row r="647" spans="1:6" ht="15">
       <c r="A647" s="1"/>
       <c r="B647" s="21">
         <v>541</v>
@@ -20141,7 +20144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="14.5">
+    <row r="648" spans="1:6" ht="15">
       <c r="A648" s="1"/>
       <c r="B648" s="21">
         <v>542</v>
@@ -20160,7 +20163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="14.5">
+    <row r="649" spans="1:6" ht="15">
       <c r="A649" s="1"/>
       <c r="B649" s="21">
         <v>543</v>
@@ -20179,7 +20182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="14.5">
+    <row r="650" spans="1:6" ht="15">
       <c r="A650" s="1"/>
       <c r="B650" s="21">
         <v>544</v>
@@ -20198,7 +20201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="14.5">
+    <row r="651" spans="1:6" ht="15">
       <c r="A651" s="1"/>
       <c r="B651" s="21">
         <v>545</v>
@@ -20217,7 +20220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="14.5">
+    <row r="652" spans="1:6" ht="15">
       <c r="A652" s="1"/>
       <c r="B652" s="21">
         <v>546</v>
@@ -20236,7 +20239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="14.5">
+    <row r="653" spans="1:6" ht="15">
       <c r="A653" s="1"/>
       <c r="B653" s="42">
         <v>547</v>
@@ -20255,7 +20258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="14.5">
+    <row r="654" spans="1:6" ht="15">
       <c r="A654" s="1"/>
       <c r="B654" s="43"/>
       <c r="C654" s="43"/>
@@ -20270,7 +20273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="14.5">
+    <row r="655" spans="1:6" ht="15">
       <c r="A655" s="1"/>
       <c r="B655" s="21">
         <v>548</v>
@@ -20289,7 +20292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="14.5">
+    <row r="656" spans="1:6" ht="15">
       <c r="A656" s="1"/>
       <c r="B656" s="21">
         <v>549</v>
@@ -20308,7 +20311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="14.5">
+    <row r="657" spans="1:6" ht="15">
       <c r="A657" s="1"/>
       <c r="B657" s="21">
         <v>550</v>
@@ -20327,7 +20330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="14.5">
+    <row r="658" spans="1:6" ht="15">
       <c r="A658" s="1"/>
       <c r="B658" s="21">
         <v>551</v>
@@ -20346,7 +20349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="14.5">
+    <row r="659" spans="1:6" ht="15">
       <c r="A659" s="1"/>
       <c r="B659" s="21">
         <v>552</v>
@@ -20365,7 +20368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="14.5">
+    <row r="660" spans="1:6" ht="15">
       <c r="A660" s="1"/>
       <c r="B660" s="21">
         <v>553</v>
@@ -20384,7 +20387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="14.5">
+    <row r="661" spans="1:6" ht="15">
       <c r="A661" s="1"/>
       <c r="B661" s="21">
         <v>554</v>
@@ -20403,7 +20406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="14.5">
+    <row r="662" spans="1:6" ht="15">
       <c r="A662" s="1"/>
       <c r="B662" s="21">
         <v>555</v>
@@ -20422,7 +20425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="14.5">
+    <row r="663" spans="1:6" ht="15">
       <c r="A663" s="1"/>
       <c r="B663" s="21">
         <v>556</v>
@@ -20441,7 +20444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="14.5">
+    <row r="664" spans="1:6" ht="15">
       <c r="A664" s="1"/>
       <c r="B664" s="21">
         <v>557</v>
@@ -20460,7 +20463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="14.5">
+    <row r="665" spans="1:6" ht="15">
       <c r="A665" s="1"/>
       <c r="B665" s="21">
         <v>558</v>
@@ -20479,7 +20482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="14.5">
+    <row r="666" spans="1:6" ht="15">
       <c r="A666" s="1"/>
       <c r="B666" s="21">
         <v>559</v>
@@ -20498,7 +20501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="14.5">
+    <row r="667" spans="1:6" ht="15">
       <c r="A667" s="1"/>
       <c r="B667" s="21">
         <v>560</v>
@@ -20517,7 +20520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="14.5">
+    <row r="668" spans="1:6" ht="15">
       <c r="A668" s="1"/>
       <c r="B668" s="21">
         <v>561</v>
@@ -20536,7 +20539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="14.5">
+    <row r="669" spans="1:6" ht="15">
       <c r="A669" s="1"/>
       <c r="B669" s="42">
         <v>562</v>
@@ -20555,7 +20558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="14.5">
+    <row r="670" spans="1:6" ht="15">
       <c r="A670" s="1"/>
       <c r="B670" s="43"/>
       <c r="C670" s="43"/>
@@ -20570,7 +20573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="14.5">
+    <row r="671" spans="1:6" ht="15">
       <c r="A671" s="1"/>
       <c r="B671" s="21">
         <v>563</v>
@@ -20589,7 +20592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="14.5">
+    <row r="672" spans="1:6" ht="15">
       <c r="A672" s="1"/>
       <c r="B672" s="21">
         <v>564</v>
@@ -20608,7 +20611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="14.5">
+    <row r="673" spans="1:6" ht="15">
       <c r="A673" s="1"/>
       <c r="B673" s="21">
         <v>565</v>
@@ -20627,7 +20630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="14.5">
+    <row r="674" spans="1:6" ht="15">
       <c r="A674" s="1"/>
       <c r="B674" s="21">
         <v>566</v>
@@ -20646,7 +20649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="14.5">
+    <row r="675" spans="1:6" ht="15">
       <c r="A675" s="1"/>
       <c r="B675" s="21">
         <v>567</v>
@@ -20665,7 +20668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="14.5">
+    <row r="676" spans="1:6" ht="15">
       <c r="A676" s="1"/>
       <c r="B676" s="42">
         <v>568</v>
@@ -20684,7 +20687,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="14.5">
+    <row r="677" spans="1:6" ht="15">
       <c r="A677" s="1"/>
       <c r="B677" s="43"/>
       <c r="C677" s="43"/>
@@ -20699,7 +20702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="14.5">
+    <row r="678" spans="1:6" ht="15">
       <c r="A678" s="1"/>
       <c r="B678" s="42">
         <v>569</v>
@@ -20718,7 +20721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="14.5">
+    <row r="679" spans="1:6" ht="15">
       <c r="A679" s="1"/>
       <c r="B679" s="43"/>
       <c r="C679" s="43"/>
@@ -20733,7 +20736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="14.5">
+    <row r="680" spans="1:6" ht="15">
       <c r="A680" s="1"/>
       <c r="B680" s="21">
         <v>570</v>
@@ -20752,7 +20755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="14.5">
+    <row r="681" spans="1:6" ht="15">
       <c r="A681" s="1"/>
       <c r="B681" s="21">
         <v>571</v>
@@ -20771,7 +20774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="14.5">
+    <row r="682" spans="1:6" ht="15">
       <c r="A682" s="1"/>
       <c r="B682" s="21">
         <v>572</v>
@@ -20790,7 +20793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="14.5">
+    <row r="683" spans="1:6" ht="15">
       <c r="A683" s="1"/>
       <c r="B683" s="21">
         <v>573</v>
@@ -20809,7 +20812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="14.5">
+    <row r="684" spans="1:6" ht="15">
       <c r="A684" s="1"/>
       <c r="B684" s="21">
         <v>574</v>
@@ -20828,7 +20831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="14.5">
+    <row r="685" spans="1:6" ht="15">
       <c r="A685" s="1"/>
       <c r="B685" s="21">
         <v>575</v>
@@ -20847,7 +20850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="14.5">
+    <row r="686" spans="1:6" ht="15">
       <c r="A686" s="1"/>
       <c r="B686" s="21">
         <v>576</v>
@@ -20866,7 +20869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="14.5">
+    <row r="687" spans="1:6" ht="15">
       <c r="A687" s="1"/>
       <c r="B687" s="21">
         <v>577</v>
@@ -20885,7 +20888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="14.5">
+    <row r="688" spans="1:6" ht="15">
       <c r="A688" s="1"/>
       <c r="B688" s="21">
         <v>578</v>
@@ -20904,7 +20907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="14.5">
+    <row r="689" spans="1:6" ht="15">
       <c r="A689" s="1"/>
       <c r="B689" s="21">
         <v>579</v>
@@ -20923,7 +20926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="14.5">
+    <row r="690" spans="1:6" ht="15">
       <c r="A690" s="1"/>
       <c r="B690" s="21">
         <v>580</v>
@@ -20942,7 +20945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="14.5">
+    <row r="691" spans="1:6" ht="15">
       <c r="A691" s="1"/>
       <c r="B691" s="21">
         <v>581</v>
@@ -20961,7 +20964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="14.5">
+    <row r="692" spans="1:6" ht="15">
       <c r="A692" s="1"/>
       <c r="B692" s="21">
         <v>582</v>
@@ -20980,7 +20983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="14.5">
+    <row r="693" spans="1:6" ht="15">
       <c r="A693" s="1"/>
       <c r="B693" s="21">
         <v>583</v>
@@ -20999,7 +21002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="14.5">
+    <row r="694" spans="1:6" ht="15">
       <c r="A694" s="1"/>
       <c r="B694" s="21">
         <v>584</v>
@@ -21018,7 +21021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="14.5">
+    <row r="695" spans="1:6" ht="15">
       <c r="A695" s="1"/>
       <c r="B695" s="21">
         <v>585</v>
@@ -21037,7 +21040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="14.5">
+    <row r="696" spans="1:6" ht="15">
       <c r="A696" s="1"/>
       <c r="B696" s="21">
         <v>586</v>
@@ -21056,7 +21059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="14.5">
+    <row r="697" spans="1:6" ht="15">
       <c r="A697" s="1"/>
       <c r="B697" s="21">
         <v>587</v>
@@ -21075,7 +21078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="14.5">
+    <row r="698" spans="1:6" ht="15">
       <c r="A698" s="1"/>
       <c r="B698" s="21">
         <v>588</v>
@@ -21094,7 +21097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="14.5">
+    <row r="699" spans="1:6" ht="15">
       <c r="A699" s="1"/>
       <c r="B699" s="42">
         <v>589</v>
@@ -21113,7 +21116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="14.5">
+    <row r="700" spans="1:6" ht="15">
       <c r="A700" s="1"/>
       <c r="B700" s="43"/>
       <c r="C700" s="43"/>
@@ -21128,7 +21131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="14.5">
+    <row r="701" spans="1:6" ht="15">
       <c r="A701" s="1"/>
       <c r="B701" s="21">
         <v>590</v>
@@ -21147,7 +21150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="14.5">
+    <row r="702" spans="1:6" ht="15">
       <c r="A702" s="1"/>
       <c r="B702" s="21">
         <v>591</v>
@@ -21166,7 +21169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="14.5">
+    <row r="703" spans="1:6" ht="15">
       <c r="A703" s="1"/>
       <c r="B703" s="42">
         <v>592</v>
@@ -21185,7 +21188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="14.5">
+    <row r="704" spans="1:6" ht="15">
       <c r="A704" s="1"/>
       <c r="B704" s="43"/>
       <c r="C704" s="43"/>
@@ -21200,7 +21203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="14.5">
+    <row r="705" spans="1:6" ht="15">
       <c r="A705" s="1"/>
       <c r="B705" s="21">
         <v>593</v>
@@ -21219,7 +21222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="14.5">
+    <row r="706" spans="1:6" ht="15">
       <c r="A706" s="1"/>
       <c r="B706" s="21">
         <v>594</v>
@@ -21238,7 +21241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="14.5">
+    <row r="707" spans="1:6" ht="15">
       <c r="A707" s="1"/>
       <c r="B707" s="21">
         <v>595</v>
@@ -21257,7 +21260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="14.5">
+    <row r="708" spans="1:6" ht="15">
       <c r="A708" s="1"/>
       <c r="B708" s="21">
         <v>596</v>
@@ -21276,7 +21279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="14.5">
+    <row r="709" spans="1:6" ht="15">
       <c r="A709" s="1"/>
       <c r="B709" s="21">
         <v>597</v>
@@ -21295,7 +21298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="14.5">
+    <row r="710" spans="1:6" ht="15">
       <c r="A710" s="1"/>
       <c r="B710" s="21">
         <v>598</v>
@@ -21314,7 +21317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="14.5">
+    <row r="711" spans="1:6" ht="15">
       <c r="A711" s="1"/>
       <c r="B711" s="21">
         <v>599</v>
@@ -21333,7 +21336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="14.5">
+    <row r="712" spans="1:6" ht="15">
       <c r="A712" s="1"/>
       <c r="B712" s="21">
         <v>600</v>
@@ -21352,7 +21355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="14.5">
+    <row r="713" spans="1:6" ht="15">
       <c r="A713" s="1"/>
       <c r="B713" s="21">
         <v>601</v>
@@ -21371,7 +21374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="14.5">
+    <row r="714" spans="1:6" ht="15">
       <c r="A714" s="1"/>
       <c r="B714" s="21">
         <v>602</v>
@@ -21390,7 +21393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="14.5">
+    <row r="715" spans="1:6" ht="15">
       <c r="A715" s="1"/>
       <c r="B715" s="21">
         <v>603</v>
@@ -21409,7 +21412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="14.5">
+    <row r="716" spans="1:6" ht="15">
       <c r="A716" s="1"/>
       <c r="B716" s="21">
         <v>604</v>
@@ -21428,7 +21431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="14.5">
+    <row r="717" spans="1:6" ht="15">
       <c r="A717" s="1"/>
       <c r="B717" s="21">
         <v>605</v>
@@ -21447,7 +21450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="14.5">
+    <row r="718" spans="1:6" ht="15">
       <c r="A718" s="1"/>
       <c r="B718" s="42">
         <v>606</v>
@@ -21466,7 +21469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="14.5">
+    <row r="719" spans="1:6" ht="15">
       <c r="A719" s="1"/>
       <c r="B719" s="43"/>
       <c r="C719" s="43"/>
@@ -21481,7 +21484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="14.5">
+    <row r="720" spans="1:6" ht="15">
       <c r="A720" s="1"/>
       <c r="B720" s="21">
         <v>607</v>
@@ -21500,7 +21503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="14.5">
+    <row r="721" spans="1:6" ht="15">
       <c r="A721" s="1"/>
       <c r="B721" s="21">
         <v>608</v>
@@ -21519,7 +21522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="14.5">
+    <row r="722" spans="1:6" ht="15">
       <c r="A722" s="1"/>
       <c r="B722" s="42">
         <v>609</v>
@@ -21538,7 +21541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="14.5">
+    <row r="723" spans="1:6" ht="15">
       <c r="A723" s="1"/>
       <c r="B723" s="43"/>
       <c r="C723" s="43"/>
@@ -21553,7 +21556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="14.5">
+    <row r="724" spans="1:6" ht="15">
       <c r="A724" s="1"/>
       <c r="B724" s="21">
         <v>610</v>
@@ -21572,7 +21575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="14.5">
+    <row r="725" spans="1:6" ht="15">
       <c r="A725" s="1"/>
       <c r="B725" s="21">
         <v>611</v>
@@ -21591,7 +21594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="14.5">
+    <row r="726" spans="1:6" ht="15">
       <c r="A726" s="1"/>
       <c r="B726" s="21">
         <v>612</v>
@@ -21610,7 +21613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="14.5">
+    <row r="727" spans="1:6" ht="15">
       <c r="A727" s="1"/>
       <c r="B727" s="21">
         <v>613</v>
@@ -21629,7 +21632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="14.5">
+    <row r="728" spans="1:6" ht="15">
       <c r="A728" s="1"/>
       <c r="B728" s="21">
         <v>614</v>
@@ -21648,7 +21651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="14.5">
+    <row r="729" spans="1:6" ht="15">
       <c r="A729" s="1"/>
       <c r="B729" s="21">
         <v>615</v>
@@ -21667,7 +21670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="14.5">
+    <row r="730" spans="1:6" ht="15">
       <c r="A730" s="1"/>
       <c r="B730" s="21">
         <v>616</v>
@@ -21686,7 +21689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="14.5">
+    <row r="731" spans="1:6" ht="15">
       <c r="A731" s="1"/>
       <c r="B731" s="21">
         <v>617</v>
@@ -21705,7 +21708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="14.5">
+    <row r="732" spans="1:6" ht="15">
       <c r="A732" s="1"/>
       <c r="B732" s="21">
         <v>618</v>
@@ -21724,7 +21727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="14.5">
+    <row r="733" spans="1:6" ht="15">
       <c r="A733" s="1"/>
       <c r="B733" s="21">
         <v>619</v>
@@ -21743,7 +21746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="14.5">
+    <row r="734" spans="1:6" ht="15">
       <c r="A734" s="1"/>
       <c r="B734" s="21">
         <v>620</v>
@@ -21762,7 +21765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="14.5">
+    <row r="735" spans="1:6" ht="15">
       <c r="A735" s="1"/>
       <c r="B735" s="21">
         <v>621</v>
@@ -21781,7 +21784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="14.5">
+    <row r="736" spans="1:6" ht="15">
       <c r="A736" s="1"/>
       <c r="B736" s="21">
         <v>622</v>
@@ -21800,7 +21803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="14.5">
+    <row r="737" spans="1:6" ht="15">
       <c r="A737" s="1"/>
       <c r="B737" s="21">
         <v>623</v>
@@ -21819,7 +21822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="14.5">
+    <row r="738" spans="1:6" ht="15">
       <c r="A738" s="1"/>
       <c r="B738" s="21">
         <v>624</v>
@@ -21838,7 +21841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="14.5">
+    <row r="739" spans="1:6" ht="15">
       <c r="A739" s="1"/>
       <c r="B739" s="21">
         <v>625</v>
@@ -21857,7 +21860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="14.5">
+    <row r="740" spans="1:6" ht="15">
       <c r="A740" s="1"/>
       <c r="B740" s="21">
         <v>626</v>
@@ -21876,7 +21879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="14.5">
+    <row r="741" spans="1:6" ht="15">
       <c r="A741" s="1"/>
       <c r="B741" s="21">
         <v>627</v>
@@ -21895,7 +21898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="14.5">
+    <row r="742" spans="1:6" ht="15">
       <c r="A742" s="1"/>
       <c r="B742" s="21">
         <v>628</v>
@@ -21914,7 +21917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="14.5">
+    <row r="743" spans="1:6" ht="15">
       <c r="A743" s="1"/>
       <c r="B743" s="21">
         <v>629</v>
@@ -21933,7 +21936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="14.5">
+    <row r="744" spans="1:6" ht="15">
       <c r="A744" s="1"/>
       <c r="B744" s="21">
         <v>630</v>
@@ -21952,7 +21955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="14.5">
+    <row r="745" spans="1:6" ht="15">
       <c r="A745" s="1"/>
       <c r="B745" s="42">
         <v>631</v>
@@ -21971,7 +21974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="14.5">
+    <row r="746" spans="1:6" ht="15">
       <c r="A746" s="1"/>
       <c r="B746" s="43"/>
       <c r="C746" s="43"/>
@@ -21986,7 +21989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="14.5">
+    <row r="747" spans="1:6" ht="15">
       <c r="A747" s="1"/>
       <c r="B747" s="42">
         <v>632</v>
@@ -22005,7 +22008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="14.5">
+    <row r="748" spans="1:6" ht="15">
       <c r="A748" s="1"/>
       <c r="B748" s="43"/>
       <c r="C748" s="43"/>
@@ -22020,7 +22023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="14.5">
+    <row r="749" spans="1:6" ht="15">
       <c r="A749" s="1"/>
       <c r="B749" s="21">
         <v>633</v>
@@ -22039,7 +22042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="14.5">
+    <row r="750" spans="1:6" ht="15">
       <c r="A750" s="1"/>
       <c r="B750" s="21">
         <v>634</v>
@@ -22058,7 +22061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="14.5">
+    <row r="751" spans="1:6" ht="15">
       <c r="A751" s="1"/>
       <c r="B751" s="21">
         <v>635</v>
@@ -22077,7 +22080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="14.5">
+    <row r="752" spans="1:6" ht="15">
       <c r="A752" s="1"/>
       <c r="B752" s="21">
         <v>636</v>
@@ -22096,7 +22099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="14.5">
+    <row r="753" spans="1:6" ht="15">
       <c r="A753" s="1"/>
       <c r="B753" s="21">
         <v>637</v>
@@ -22115,7 +22118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="14.5">
+    <row r="754" spans="1:6" ht="15">
       <c r="A754" s="1"/>
       <c r="B754" s="21">
         <v>638</v>
@@ -22134,7 +22137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="14.5">
+    <row r="755" spans="1:6" ht="15">
       <c r="A755" s="1"/>
       <c r="B755" s="21">
         <v>639</v>
@@ -22153,7 +22156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="14.5">
+    <row r="756" spans="1:6" ht="15">
       <c r="A756" s="1"/>
       <c r="B756" s="21">
         <v>640</v>
@@ -22172,7 +22175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="14.5">
+    <row r="757" spans="1:6" ht="15">
       <c r="A757" s="1"/>
       <c r="B757" s="21">
         <v>641</v>
@@ -22191,7 +22194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="14.5">
+    <row r="758" spans="1:6" ht="15">
       <c r="A758" s="1"/>
       <c r="B758" s="42">
         <v>642</v>
@@ -22210,7 +22213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="14.5">
+    <row r="759" spans="1:6" ht="15">
       <c r="A759" s="1"/>
       <c r="B759" s="43"/>
       <c r="C759" s="43"/>
@@ -22225,7 +22228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="14.5">
+    <row r="760" spans="1:6" ht="15">
       <c r="A760" s="1"/>
       <c r="B760" s="42">
         <v>643</v>
@@ -22244,7 +22247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="14.5">
+    <row r="761" spans="1:6" ht="15">
       <c r="A761" s="1"/>
       <c r="B761" s="43"/>
       <c r="C761" s="43"/>
@@ -22259,7 +22262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="14.5">
+    <row r="762" spans="1:6" ht="15">
       <c r="A762" s="1"/>
       <c r="B762" s="21">
         <v>644</v>
@@ -22278,7 +22281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="14.5">
+    <row r="763" spans="1:6" ht="15">
       <c r="A763" s="1"/>
       <c r="B763" s="21">
         <v>645</v>
@@ -22297,7 +22300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="14.5">
+    <row r="764" spans="1:6" ht="15">
       <c r="A764" s="1"/>
       <c r="B764" s="21">
         <v>646</v>
@@ -22316,7 +22319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="14.5">
+    <row r="765" spans="1:6" ht="15">
       <c r="A765" s="1"/>
       <c r="B765" s="21">
         <v>647</v>
@@ -22335,7 +22338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="14.5">
+    <row r="766" spans="1:6" ht="15">
       <c r="A766" s="1"/>
       <c r="B766" s="42">
         <v>648</v>
@@ -22354,7 +22357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="14.5">
+    <row r="767" spans="1:6" ht="15">
       <c r="A767" s="1"/>
       <c r="B767" s="43"/>
       <c r="C767" s="43"/>
@@ -22369,7 +22372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="14.5">
+    <row r="768" spans="1:6" ht="15">
       <c r="A768" s="1"/>
       <c r="B768" s="21">
         <v>649</v>
@@ -22388,7 +22391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="14.5">
+    <row r="769" spans="1:6" ht="15">
       <c r="A769" s="1"/>
       <c r="B769" s="21">
         <v>650</v>
@@ -22407,7 +22410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="14.5">
+    <row r="770" spans="1:6" ht="15">
       <c r="A770" s="1"/>
       <c r="B770" s="21">
         <v>651</v>
@@ -22426,7 +22429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="14.5">
+    <row r="771" spans="1:6" ht="15">
       <c r="A771" s="1"/>
       <c r="B771" s="21">
         <v>652</v>
@@ -22445,7 +22448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="14.5">
+    <row r="772" spans="1:6" ht="15">
       <c r="A772" s="1"/>
       <c r="B772" s="21">
         <v>653</v>
@@ -22464,7 +22467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="14.5">
+    <row r="773" spans="1:6" ht="15">
       <c r="A773" s="1"/>
       <c r="B773" s="21">
         <v>654</v>
@@ -22483,7 +22486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="14.5">
+    <row r="774" spans="1:6" ht="15">
       <c r="A774" s="1"/>
       <c r="B774" s="21">
         <v>655</v>
@@ -22502,7 +22505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="14.5">
+    <row r="775" spans="1:6" ht="15">
       <c r="A775" s="1"/>
       <c r="B775" s="21">
         <v>656</v>
@@ -22521,7 +22524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="14.5">
+    <row r="776" spans="1:6" ht="15">
       <c r="A776" s="1"/>
       <c r="B776" s="42">
         <v>657</v>
@@ -22540,7 +22543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="14.5">
+    <row r="777" spans="1:6" ht="15">
       <c r="A777" s="1"/>
       <c r="B777" s="43"/>
       <c r="C777" s="43"/>
@@ -22555,7 +22558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="14.5">
+    <row r="778" spans="1:6" ht="15">
       <c r="A778" s="1"/>
       <c r="B778" s="21">
         <v>658</v>
@@ -22574,7 +22577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="14.5">
+    <row r="779" spans="1:6" ht="15">
       <c r="A779" s="1"/>
       <c r="B779" s="21">
         <v>659</v>
@@ -22593,7 +22596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="14.5">
+    <row r="780" spans="1:6" ht="15">
       <c r="A780" s="1"/>
       <c r="B780" s="21">
         <v>660</v>
@@ -22612,7 +22615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="14.5">
+    <row r="781" spans="1:6" ht="15">
       <c r="A781" s="1"/>
       <c r="B781" s="21">
         <v>661</v>
@@ -22631,7 +22634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="14.5">
+    <row r="782" spans="1:6" ht="15">
       <c r="A782" s="1"/>
       <c r="B782" s="21">
         <v>662</v>
@@ -22650,7 +22653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="14.5">
+    <row r="783" spans="1:6" ht="15">
       <c r="A783" s="1"/>
       <c r="B783" s="21">
         <v>663</v>
@@ -22669,7 +22672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="14.5">
+    <row r="784" spans="1:6" ht="15">
       <c r="A784" s="1"/>
       <c r="B784" s="21">
         <v>664</v>
@@ -22688,7 +22691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="14.5">
+    <row r="785" spans="1:6" ht="15">
       <c r="A785" s="1"/>
       <c r="B785" s="21">
         <v>665</v>
@@ -22707,7 +22710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="14.5">
+    <row r="786" spans="1:6" ht="15">
       <c r="A786" s="1"/>
       <c r="B786" s="21">
         <v>666</v>
@@ -22726,7 +22729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="14.5">
+    <row r="787" spans="1:6" ht="15">
       <c r="A787" s="1"/>
       <c r="B787" s="42">
         <v>667</v>
@@ -22745,7 +22748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="14.5">
+    <row r="788" spans="1:6" ht="15">
       <c r="A788" s="1"/>
       <c r="B788" s="43"/>
       <c r="C788" s="43"/>
@@ -22760,7 +22763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="14.5">
+    <row r="789" spans="1:6" ht="15">
       <c r="A789" s="1"/>
       <c r="B789" s="21">
         <v>668</v>
@@ -22779,7 +22782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="14.5">
+    <row r="790" spans="1:6" ht="15">
       <c r="A790" s="1"/>
       <c r="B790" s="21">
         <v>669</v>
@@ -22798,7 +22801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="14.5">
+    <row r="791" spans="1:6" ht="15">
       <c r="A791" s="1"/>
       <c r="B791" s="21">
         <v>670</v>
@@ -22817,7 +22820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="14.5">
+    <row r="792" spans="1:6" ht="15">
       <c r="A792" s="1"/>
       <c r="B792" s="21">
         <v>671</v>
@@ -22836,7 +22839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="14.5">
+    <row r="793" spans="1:6" ht="15">
       <c r="A793" s="1"/>
       <c r="B793" s="21">
         <v>672</v>
@@ -22855,7 +22858,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="14.5">
+    <row r="794" spans="1:6" ht="15">
       <c r="A794" s="1"/>
       <c r="B794" s="21">
         <v>673</v>
@@ -22874,7 +22877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="14.5">
+    <row r="795" spans="1:6" ht="15">
       <c r="A795" s="1"/>
       <c r="B795" s="21">
         <v>674</v>
@@ -22893,7 +22896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="14.5">
+    <row r="796" spans="1:6" ht="15">
       <c r="A796" s="1"/>
       <c r="B796" s="21">
         <v>675</v>
@@ -22912,7 +22915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="14.5">
+    <row r="797" spans="1:6" ht="15">
       <c r="A797" s="1"/>
       <c r="B797" s="21">
         <v>676</v>
@@ -22929,7 +22932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="14.5">
+    <row r="798" spans="1:6" ht="15">
       <c r="A798" s="1"/>
       <c r="B798" s="21">
         <v>677</v>
@@ -22948,7 +22951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="14.5">
+    <row r="799" spans="1:6" ht="15">
       <c r="A799" s="1"/>
       <c r="B799" s="21">
         <v>678</v>
@@ -22967,7 +22970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="14.5">
+    <row r="800" spans="1:6" ht="15">
       <c r="A800" s="1"/>
       <c r="B800" s="21">
         <v>679</v>
@@ -22986,7 +22989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="14.5">
+    <row r="801" spans="1:6" ht="15">
       <c r="A801" s="1"/>
       <c r="B801" s="21">
         <v>680</v>
@@ -23005,7 +23008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="14.5">
+    <row r="802" spans="1:6" ht="15">
       <c r="A802" s="1"/>
       <c r="B802" s="42">
         <v>681</v>
@@ -23024,7 +23027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="14.5">
+    <row r="803" spans="1:6" ht="15">
       <c r="A803" s="1"/>
       <c r="B803" s="43"/>
       <c r="C803" s="43"/>
@@ -23039,7 +23042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="14.5">
+    <row r="804" spans="1:6" ht="15">
       <c r="A804" s="1"/>
       <c r="B804" s="21">
         <v>682</v>
@@ -23058,7 +23061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="14.5">
+    <row r="805" spans="1:6" ht="15">
       <c r="A805" s="1"/>
       <c r="B805" s="42">
         <v>683</v>
@@ -23077,7 +23080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="14.5">
+    <row r="806" spans="1:6" ht="15">
       <c r="A806" s="1"/>
       <c r="B806" s="43"/>
       <c r="C806" s="43"/>
@@ -23092,7 +23095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="14.5">
+    <row r="807" spans="1:6" ht="15">
       <c r="A807" s="1"/>
       <c r="B807" s="21">
         <v>684</v>
@@ -23111,7 +23114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="14.5">
+    <row r="808" spans="1:6" ht="15">
       <c r="A808" s="1"/>
       <c r="B808" s="21">
         <v>685</v>
@@ -23130,7 +23133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="14.5">
+    <row r="809" spans="1:6" ht="15">
       <c r="A809" s="1"/>
       <c r="B809" s="21">
         <v>686</v>
@@ -23149,7 +23152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="14.5">
+    <row r="810" spans="1:6" ht="15">
       <c r="A810" s="1"/>
       <c r="B810" s="42">
         <v>687</v>
@@ -23168,7 +23171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="14.5">
+    <row r="811" spans="1:6" ht="15">
       <c r="A811" s="1"/>
       <c r="B811" s="43"/>
       <c r="C811" s="43"/>
@@ -23183,7 +23186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="14.5">
+    <row r="812" spans="1:6" ht="15">
       <c r="A812" s="1"/>
       <c r="B812" s="21">
         <v>688</v>
@@ -23202,7 +23205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="14.5">
+    <row r="813" spans="1:6" ht="15">
       <c r="A813" s="1"/>
       <c r="B813" s="21">
         <v>689</v>
@@ -23221,7 +23224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="14.5">
+    <row r="814" spans="1:6" ht="15">
       <c r="A814" s="1"/>
       <c r="B814" s="21">
         <v>690</v>
@@ -23240,7 +23243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="14.5">
+    <row r="815" spans="1:6" ht="15">
       <c r="A815" s="1"/>
       <c r="B815" s="21">
         <v>691</v>
@@ -23259,7 +23262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="14.5">
+    <row r="816" spans="1:6" ht="15">
       <c r="A816" s="1"/>
       <c r="B816" s="21">
         <v>692</v>
@@ -23278,7 +23281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="14.5">
+    <row r="817" spans="1:6" ht="15">
       <c r="A817" s="1"/>
       <c r="B817" s="21">
         <v>693</v>
@@ -23297,7 +23300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="14.5">
+    <row r="818" spans="1:6" ht="15">
       <c r="A818" s="1"/>
       <c r="B818" s="21">
         <v>694</v>
@@ -23316,7 +23319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="14.5">
+    <row r="819" spans="1:6" ht="15">
       <c r="A819" s="1"/>
       <c r="B819" s="21">
         <v>695</v>
@@ -23335,7 +23338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="14.5">
+    <row r="820" spans="1:6" ht="15">
       <c r="A820" s="1"/>
       <c r="B820" s="42">
         <v>696</v>
@@ -23354,7 +23357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="14.5">
+    <row r="821" spans="1:6" ht="15">
       <c r="A821" s="1"/>
       <c r="B821" s="43"/>
       <c r="C821" s="43"/>
@@ -23369,7 +23372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="14.5">
+    <row r="822" spans="1:6" ht="15">
       <c r="A822" s="1"/>
       <c r="B822" s="21">
         <v>697</v>
@@ -23388,7 +23391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="14.5">
+    <row r="823" spans="1:6" ht="15">
       <c r="A823" s="1"/>
       <c r="B823" s="21">
         <v>698</v>
@@ -23407,7 +23410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="14.5">
+    <row r="824" spans="1:6" ht="15">
       <c r="A824" s="1"/>
       <c r="B824" s="21">
         <v>699</v>
@@ -23426,7 +23429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="14.5">
+    <row r="825" spans="1:6" ht="15">
       <c r="A825" s="1"/>
       <c r="B825" s="42">
         <v>700</v>
@@ -23445,7 +23448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="14.5">
+    <row r="826" spans="1:6" ht="15">
       <c r="A826" s="1"/>
       <c r="B826" s="43"/>
       <c r="C826" s="43"/>
@@ -23460,7 +23463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="14.5">
+    <row r="827" spans="1:6" ht="15">
       <c r="A827" s="1"/>
       <c r="B827" s="21">
         <v>701</v>
@@ -23477,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="14.5">
+    <row r="828" spans="1:6" ht="15">
       <c r="A828" s="1"/>
       <c r="B828" s="21">
         <v>702</v>
@@ -23496,7 +23499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="14.5">
+    <row r="829" spans="1:6" ht="15">
       <c r="A829" s="1"/>
       <c r="B829" s="21">
         <v>703</v>
@@ -23515,7 +23518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="14.5">
+    <row r="830" spans="1:6" ht="15">
       <c r="A830" s="1"/>
       <c r="B830" s="21">
         <v>704</v>
@@ -23534,7 +23537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="14.5">
+    <row r="831" spans="1:6" ht="15">
       <c r="A831" s="1"/>
       <c r="B831" s="21">
         <v>705</v>
@@ -23553,7 +23556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="14.5">
+    <row r="832" spans="1:6" ht="15">
       <c r="A832" s="1"/>
       <c r="B832" s="21">
         <v>706</v>
@@ -23572,7 +23575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="14.5">
+    <row r="833" spans="1:6" ht="15">
       <c r="A833" s="1"/>
       <c r="B833" s="21">
         <v>707</v>
@@ -23591,7 +23594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="14.5">
+    <row r="834" spans="1:6" ht="15">
       <c r="A834" s="1"/>
       <c r="B834" s="21">
         <v>708</v>
@@ -23610,7 +23613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="14.5">
+    <row r="835" spans="1:6" ht="15">
       <c r="A835" s="1"/>
       <c r="B835" s="21">
         <v>709</v>
@@ -23629,7 +23632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="14.5">
+    <row r="836" spans="1:6" ht="15">
       <c r="A836" s="1"/>
       <c r="B836" s="21">
         <v>710</v>
@@ -23648,7 +23651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="14.5">
+    <row r="837" spans="1:6" ht="15">
       <c r="A837" s="1"/>
       <c r="B837" s="21">
         <v>711</v>
@@ -23667,7 +23670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="14.5">
+    <row r="838" spans="1:6" ht="15">
       <c r="A838" s="1"/>
       <c r="B838" s="21">
         <v>712</v>
@@ -23686,7 +23689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="14.5">
+    <row r="839" spans="1:6" ht="15">
       <c r="A839" s="1"/>
       <c r="B839" s="21">
         <v>713</v>
@@ -23705,7 +23708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="14.5">
+    <row r="840" spans="1:6" ht="15">
       <c r="A840" s="1"/>
       <c r="B840" s="21">
         <v>714</v>
@@ -23724,7 +23727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="14.5">
+    <row r="841" spans="1:6" ht="15">
       <c r="A841" s="1"/>
       <c r="B841" s="21">
         <v>715</v>
@@ -23743,7 +23746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="14.5">
+    <row r="842" spans="1:6" ht="15">
       <c r="A842" s="1"/>
       <c r="B842" s="21">
         <v>716</v>
@@ -23762,7 +23765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="14.5">
+    <row r="843" spans="1:6" ht="15">
       <c r="A843" s="1"/>
       <c r="B843" s="21">
         <v>717</v>
@@ -23781,7 +23784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="14.5">
+    <row r="844" spans="1:6" ht="15">
       <c r="A844" s="1"/>
       <c r="B844" s="21">
         <v>718</v>
@@ -23800,7 +23803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="14.5">
+    <row r="845" spans="1:6" ht="15">
       <c r="A845" s="1"/>
       <c r="B845" s="21">
         <v>719</v>
@@ -23819,7 +23822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="14.5">
+    <row r="846" spans="1:6" ht="15">
       <c r="A846" s="1"/>
       <c r="B846" s="42">
         <v>720</v>
@@ -23838,7 +23841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="14.5">
+    <row r="847" spans="1:6" ht="15">
       <c r="A847" s="1"/>
       <c r="B847" s="43"/>
       <c r="C847" s="43"/>
@@ -23853,7 +23856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="14.5">
+    <row r="848" spans="1:6" ht="15">
       <c r="A848" s="1"/>
       <c r="B848" s="21">
         <v>721</v>
@@ -23872,7 +23875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="14.5">
+    <row r="849" spans="1:6" ht="15">
       <c r="A849" s="1"/>
       <c r="B849" s="21">
         <v>722</v>
@@ -23891,7 +23894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="14.5">
+    <row r="850" spans="1:6" ht="15">
       <c r="A850" s="1"/>
       <c r="B850" s="21">
         <v>723</v>
@@ -23910,7 +23913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="14.5">
+    <row r="851" spans="1:6" ht="15">
       <c r="A851" s="1"/>
       <c r="B851" s="21">
         <v>724</v>
@@ -23929,7 +23932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="14.5">
+    <row r="852" spans="1:6" ht="15">
       <c r="A852" s="1"/>
       <c r="B852" s="21">
         <v>725</v>
@@ -23948,7 +23951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="14.5">
+    <row r="853" spans="1:6" ht="15">
       <c r="A853" s="1"/>
       <c r="B853" s="21">
         <v>726</v>
@@ -23967,7 +23970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="14.5">
+    <row r="854" spans="1:6" ht="15">
       <c r="A854" s="1"/>
       <c r="B854" s="21">
         <v>727</v>
@@ -23986,7 +23989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="14.5">
+    <row r="855" spans="1:6" ht="15">
       <c r="A855" s="1"/>
       <c r="B855" s="21">
         <v>728</v>
@@ -24005,7 +24008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="14.5">
+    <row r="856" spans="1:6" ht="15">
       <c r="A856" s="1"/>
       <c r="B856" s="21">
         <v>729</v>
@@ -24024,7 +24027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="14.5">
+    <row r="857" spans="1:6" ht="15">
       <c r="A857" s="1"/>
       <c r="B857" s="21">
         <v>730</v>
@@ -24043,7 +24046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="14.5">
+    <row r="858" spans="1:6" ht="15">
       <c r="A858" s="1"/>
       <c r="B858" s="21">
         <v>731</v>
@@ -24062,7 +24065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="14.5">
+    <row r="859" spans="1:6" ht="15">
       <c r="A859" s="1"/>
       <c r="B859" s="21">
         <v>732</v>
@@ -24081,7 +24084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="14.5">
+    <row r="860" spans="1:6" ht="15">
       <c r="A860" s="1"/>
       <c r="B860" s="21">
         <v>733</v>
@@ -24100,7 +24103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="14.5">
+    <row r="861" spans="1:6" ht="15">
       <c r="A861" s="1"/>
       <c r="B861" s="21">
         <v>734</v>
@@ -24119,7 +24122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="14.5">
+    <row r="862" spans="1:6" ht="15">
       <c r="A862" s="1"/>
       <c r="B862" s="21">
         <v>735</v>
@@ -24138,7 +24141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="14.5">
+    <row r="863" spans="1:6" ht="15">
       <c r="A863" s="1"/>
       <c r="B863" s="21">
         <v>736</v>
@@ -24157,7 +24160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="14.5">
+    <row r="864" spans="1:6" ht="15">
       <c r="A864" s="1"/>
       <c r="B864" s="42">
         <v>737</v>
@@ -24176,7 +24179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="14.5">
+    <row r="865" spans="1:6" ht="15">
       <c r="A865" s="1"/>
       <c r="B865" s="43"/>
       <c r="C865" s="43"/>
@@ -24189,7 +24192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="14.5">
+    <row r="866" spans="1:6" ht="15">
       <c r="A866" s="1"/>
       <c r="B866" s="21">
         <v>738</v>
@@ -24208,7 +24211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="14.5">
+    <row r="867" spans="1:6" ht="15">
       <c r="A867" s="1"/>
       <c r="B867" s="21">
         <v>739</v>
@@ -24227,7 +24230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="14.5">
+    <row r="868" spans="1:6" ht="15">
       <c r="A868" s="1"/>
       <c r="B868" s="21">
         <v>740</v>
@@ -24246,7 +24249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="14.5">
+    <row r="869" spans="1:6" ht="15">
       <c r="A869" s="1"/>
       <c r="B869" s="21">
         <v>741</v>
@@ -24265,7 +24268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="14.5">
+    <row r="870" spans="1:6" ht="15">
       <c r="A870" s="1"/>
       <c r="B870" s="21">
         <v>742</v>
@@ -24284,7 +24287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="14.5">
+    <row r="871" spans="1:6" ht="15">
       <c r="A871" s="1"/>
       <c r="B871" s="21">
         <v>743</v>
@@ -24303,7 +24306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="14.5">
+    <row r="872" spans="1:6" ht="15">
       <c r="A872" s="1"/>
       <c r="B872" s="21">
         <v>744</v>
@@ -24322,7 +24325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="14.5">
+    <row r="873" spans="1:6" ht="15">
       <c r="A873" s="1"/>
       <c r="B873" s="21">
         <v>745</v>
@@ -24341,7 +24344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="14.5">
+    <row r="874" spans="1:6" ht="15">
       <c r="A874" s="1"/>
       <c r="B874" s="42">
         <v>746</v>
@@ -24360,7 +24363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="14.5">
+    <row r="875" spans="1:6" ht="15">
       <c r="A875" s="1"/>
       <c r="B875" s="43"/>
       <c r="C875" s="43"/>
@@ -24375,7 +24378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="14.5">
+    <row r="876" spans="1:6" ht="15">
       <c r="A876" s="1"/>
       <c r="B876" s="21">
         <v>747</v>
@@ -24394,7 +24397,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="14.5">
+    <row r="877" spans="1:6" ht="15">
       <c r="A877" s="1"/>
       <c r="B877" s="21">
         <v>748</v>
@@ -24413,7 +24416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="14.5">
+    <row r="878" spans="1:6" ht="15">
       <c r="A878" s="1"/>
       <c r="B878" s="21">
         <v>749</v>
@@ -24432,7 +24435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="14.5">
+    <row r="879" spans="1:6" ht="15">
       <c r="A879" s="1"/>
       <c r="B879" s="21">
         <v>750</v>
@@ -24451,7 +24454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="14.5">
+    <row r="880" spans="1:6" ht="15">
       <c r="A880" s="1"/>
       <c r="B880" s="21">
         <v>751</v>
@@ -24470,7 +24473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="14.5">
+    <row r="881" spans="1:6" ht="15">
       <c r="A881" s="1"/>
       <c r="B881" s="21">
         <v>752</v>
@@ -24489,7 +24492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="14.5">
+    <row r="882" spans="1:6" ht="15">
       <c r="A882" s="1"/>
       <c r="B882" s="21">
         <v>753</v>
@@ -24508,7 +24511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="14.5">
+    <row r="883" spans="1:6" ht="15">
       <c r="A883" s="1"/>
       <c r="B883" s="21">
         <v>754</v>
@@ -24527,7 +24530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="14.5">
+    <row r="884" spans="1:6" ht="15">
       <c r="A884" s="1"/>
       <c r="B884" s="21">
         <v>755</v>
@@ -24546,7 +24549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="14.5">
+    <row r="885" spans="1:6" ht="15">
       <c r="A885" s="1"/>
       <c r="B885" s="21">
         <v>756</v>
@@ -24565,7 +24568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="14.5">
+    <row r="886" spans="1:6" ht="15">
       <c r="A886" s="1"/>
       <c r="B886" s="21">
         <v>757</v>
@@ -24584,7 +24587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="14.5">
+    <row r="887" spans="1:6" ht="15">
       <c r="A887" s="1"/>
       <c r="B887" s="21">
         <v>758</v>
@@ -24603,7 +24606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="14.5">
+    <row r="888" spans="1:6" ht="15">
       <c r="A888" s="1"/>
       <c r="B888" s="21">
         <v>759</v>
@@ -24622,7 +24625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="14.5">
+    <row r="889" spans="1:6" ht="15">
       <c r="A889" s="1"/>
       <c r="B889" s="21">
         <v>760</v>
@@ -24641,7 +24644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="14.5">
+    <row r="890" spans="1:6" ht="15">
       <c r="A890" s="1"/>
       <c r="B890" s="21">
         <v>761</v>
@@ -24660,7 +24663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="14.5">
+    <row r="891" spans="1:6" ht="15">
       <c r="A891" s="1"/>
       <c r="B891" s="21">
         <v>762</v>
@@ -24679,7 +24682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="14.5">
+    <row r="892" spans="1:6" ht="15">
       <c r="A892" s="1"/>
       <c r="B892" s="42">
         <v>763</v>
@@ -24698,7 +24701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="14.5">
+    <row r="893" spans="1:6" ht="15">
       <c r="A893" s="1"/>
       <c r="B893" s="43"/>
       <c r="C893" s="43"/>
@@ -24713,7 +24716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="14.5">
+    <row r="894" spans="1:6" ht="15">
       <c r="A894" s="1"/>
       <c r="B894" s="21">
         <v>764</v>
@@ -24732,7 +24735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="14.5">
+    <row r="895" spans="1:6" ht="15">
       <c r="A895" s="1"/>
       <c r="B895" s="21">
         <v>765</v>
@@ -24751,7 +24754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="14.5">
+    <row r="896" spans="1:6" ht="15">
       <c r="A896" s="1"/>
       <c r="B896" s="21">
         <v>766</v>
@@ -24770,7 +24773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="14.5">
+    <row r="897" spans="1:6" ht="15">
       <c r="A897" s="1"/>
       <c r="B897" s="21">
         <v>767</v>
@@ -24789,7 +24792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="14.5">
+    <row r="898" spans="1:6" ht="15">
       <c r="A898" s="1"/>
       <c r="B898" s="21">
         <v>768</v>
@@ -24808,7 +24811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="14.5">
+    <row r="899" spans="1:6" ht="15">
       <c r="A899" s="1"/>
       <c r="B899" s="21">
         <v>769</v>
@@ -24827,7 +24830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="14.5">
+    <row r="900" spans="1:6" ht="15">
       <c r="A900" s="1"/>
       <c r="B900" s="21">
         <v>770</v>
@@ -24846,7 +24849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="14.5">
+    <row r="901" spans="1:6" ht="15">
       <c r="A901" s="1"/>
       <c r="B901" s="21">
         <v>771</v>
@@ -24865,7 +24868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="14.5">
+    <row r="902" spans="1:6" ht="15">
       <c r="A902" s="1"/>
       <c r="B902" s="21">
         <v>772</v>
@@ -24884,7 +24887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="14.5">
+    <row r="903" spans="1:6" ht="15">
       <c r="A903" s="1"/>
       <c r="B903" s="21">
         <v>773</v>
@@ -24903,7 +24906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="14.5">
+    <row r="904" spans="1:6" ht="15">
       <c r="A904" s="1"/>
       <c r="B904" s="21">
         <v>774</v>
@@ -24922,7 +24925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="14.5">
+    <row r="905" spans="1:6" ht="15">
       <c r="A905" s="1"/>
       <c r="B905" s="21">
         <v>775</v>
@@ -24941,7 +24944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="14.5">
+    <row r="906" spans="1:6" ht="15">
       <c r="A906" s="1"/>
       <c r="B906" s="21">
         <v>776</v>
@@ -24958,7 +24961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="14.5">
+    <row r="907" spans="1:6" ht="15">
       <c r="A907" s="1"/>
       <c r="B907" s="21">
         <v>777</v>
@@ -24977,7 +24980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="14.5">
+    <row r="908" spans="1:6" ht="15">
       <c r="A908" s="1"/>
       <c r="B908" s="21">
         <v>778</v>
@@ -24996,7 +24999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="14.5">
+    <row r="909" spans="1:6" ht="15">
       <c r="A909" s="1"/>
       <c r="B909" s="21">
         <v>779</v>
@@ -25015,7 +25018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="14.5">
+    <row r="910" spans="1:6" ht="15">
       <c r="A910" s="1"/>
       <c r="B910" s="21">
         <v>780</v>
@@ -25034,7 +25037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="14.5">
+    <row r="911" spans="1:6" ht="15">
       <c r="A911" s="1"/>
       <c r="B911" s="21">
         <v>781</v>
@@ -25053,7 +25056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="14.5">
+    <row r="912" spans="1:6" ht="15">
       <c r="A912" s="1"/>
       <c r="B912" s="21">
         <v>782</v>
@@ -25072,7 +25075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="14.5">
+    <row r="913" spans="1:6" ht="15">
       <c r="A913" s="1"/>
       <c r="B913" s="21">
         <v>783</v>
@@ -25091,7 +25094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="14.5">
+    <row r="914" spans="1:6" ht="15">
       <c r="A914" s="1"/>
       <c r="B914" s="21">
         <v>784</v>
@@ -25110,7 +25113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="14.5">
+    <row r="915" spans="1:6" ht="15">
       <c r="A915" s="1"/>
       <c r="B915" s="21">
         <v>785</v>
@@ -25129,7 +25132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="14.5">
+    <row r="916" spans="1:6" ht="15">
       <c r="A916" s="1"/>
       <c r="B916" s="21">
         <v>786</v>
@@ -25148,7 +25151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="14.5">
+    <row r="917" spans="1:6" ht="15">
       <c r="A917" s="1"/>
       <c r="B917" s="21">
         <v>787</v>
@@ -25167,7 +25170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="14.5">
+    <row r="918" spans="1:6" ht="15">
       <c r="A918" s="1"/>
       <c r="B918" s="21">
         <v>788</v>
@@ -25186,7 +25189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="14.5">
+    <row r="919" spans="1:6" ht="15">
       <c r="A919" s="1"/>
       <c r="B919" s="21">
         <v>789</v>
@@ -25203,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="14.5">
+    <row r="920" spans="1:6" ht="15">
       <c r="A920" s="1"/>
       <c r="B920" s="21">
         <v>790</v>
@@ -25220,7 +25223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="14.5">
+    <row r="921" spans="1:6" ht="15">
       <c r="A921" s="1"/>
       <c r="B921" s="21">
         <v>791</v>
@@ -25237,7 +25240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="14.5">
+    <row r="922" spans="1:6" ht="15">
       <c r="A922" s="1"/>
       <c r="B922" s="21">
         <v>792</v>
@@ -25254,7 +25257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="14.5">
+    <row r="923" spans="1:6" ht="15">
       <c r="A923" s="1"/>
       <c r="B923" s="21">
         <v>793</v>
@@ -25271,7 +25274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="14.5">
+    <row r="924" spans="1:6" ht="15">
       <c r="A924" s="1"/>
       <c r="B924" s="21">
         <v>794</v>
@@ -25288,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="14.5">
+    <row r="925" spans="1:6" ht="15">
       <c r="A925" s="1"/>
       <c r="B925" s="42">
         <v>795</v>
@@ -25305,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="14.5">
+    <row r="926" spans="1:6" ht="15">
       <c r="A926" s="1"/>
       <c r="B926" s="43"/>
       <c r="C926" s="43"/>
@@ -25318,7 +25321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="14.5">
+    <row r="927" spans="1:6" ht="15">
       <c r="A927" s="1"/>
       <c r="B927" s="21">
         <v>796</v>
@@ -25335,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="14.5">
+    <row r="928" spans="1:6" ht="15">
       <c r="A928" s="1"/>
       <c r="B928" s="21">
         <v>797</v>
@@ -25352,7 +25355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="14.5">
+    <row r="929" spans="1:6" ht="15">
       <c r="A929" s="1"/>
       <c r="B929" s="21">
         <v>798</v>
@@ -25369,7 +25372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="14.5">
+    <row r="930" spans="1:6" ht="15">
       <c r="A930" s="1"/>
       <c r="B930" s="21">
         <v>799</v>
@@ -25386,7 +25389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="14.5">
+    <row r="931" spans="1:6" ht="15">
       <c r="A931" s="1"/>
       <c r="B931" s="42">
         <v>800</v>
@@ -25403,7 +25406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="14.5">
+    <row r="932" spans="1:6" ht="15">
       <c r="A932" s="1"/>
       <c r="B932" s="43"/>
       <c r="C932" s="43"/>
@@ -25416,7 +25419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="14.5">
+    <row r="933" spans="1:6" ht="15">
       <c r="A933" s="1"/>
       <c r="B933" s="21">
         <v>801</v>
@@ -25433,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="14.5">
+    <row r="934" spans="1:6" ht="15">
       <c r="A934" s="1"/>
       <c r="B934" s="21">
         <v>802</v>
@@ -25450,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="14.5">
+    <row r="935" spans="1:6" ht="15">
       <c r="A935" s="1"/>
       <c r="B935" s="21">
         <v>803</v>
@@ -25467,7 +25470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="14.5">
+    <row r="936" spans="1:6" ht="15">
       <c r="A936" s="1"/>
       <c r="B936" s="21">
         <v>804</v>
@@ -25484,7 +25487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="14.5">
+    <row r="937" spans="1:6" ht="15">
       <c r="A937" s="1"/>
       <c r="B937" s="21">
         <v>805</v>
@@ -25501,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="14.5">
+    <row r="938" spans="1:6" ht="15">
       <c r="A938" s="1"/>
       <c r="B938" s="21">
         <v>806</v>
@@ -25518,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="14.5">
+    <row r="939" spans="1:6" ht="15">
       <c r="A939" s="1"/>
       <c r="B939" s="21">
         <v>807</v>
@@ -25535,7 +25538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="14.5">
+    <row r="940" spans="1:6" ht="15">
       <c r="A940" s="1"/>
       <c r="B940" s="21">
         <v>808</v>
@@ -25552,7 +25555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="14.5">
+    <row r="941" spans="1:6" ht="15">
       <c r="A941" s="1"/>
       <c r="B941" s="21">
         <v>809</v>
@@ -25569,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="14.5">
+    <row r="942" spans="1:6" ht="15">
       <c r="A942" s="1"/>
       <c r="B942" s="21">
         <v>810</v>
@@ -25586,7 +25589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="14.5">
+    <row r="943" spans="1:6" ht="15">
       <c r="A943" s="1"/>
       <c r="B943" s="21">
         <v>811</v>
@@ -25603,7 +25606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="14.5">
+    <row r="944" spans="1:6" ht="15">
       <c r="A944" s="1"/>
       <c r="B944" s="21">
         <v>812</v>
@@ -25620,7 +25623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="14.5">
+    <row r="945" spans="1:6" ht="15">
       <c r="A945" s="1"/>
       <c r="B945" s="21">
         <v>813</v>
@@ -25637,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="14.5">
+    <row r="946" spans="1:6" ht="15">
       <c r="A946" s="1"/>
       <c r="B946" s="21">
         <v>814</v>
@@ -25654,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="14.5">
+    <row r="947" spans="1:6" ht="15">
       <c r="A947" s="1"/>
       <c r="B947" s="21">
         <v>815</v>
@@ -25671,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="14.5">
+    <row r="948" spans="1:6" ht="15">
       <c r="A948" s="1"/>
       <c r="B948" s="21">
         <v>816</v>
@@ -25688,7 +25691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="14.5">
+    <row r="949" spans="1:6" ht="15">
       <c r="A949" s="1"/>
       <c r="B949" s="21">
         <v>817</v>
@@ -25705,7 +25708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="14.5">
+    <row r="950" spans="1:6" ht="15">
       <c r="A950" s="1"/>
       <c r="B950" s="42">
         <v>818</v>
@@ -25722,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="14.5">
+    <row r="951" spans="1:6" ht="15">
       <c r="A951" s="1"/>
       <c r="B951" s="43"/>
       <c r="C951" s="43"/>
@@ -25735,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="14.5">
+    <row r="952" spans="1:6" ht="15">
       <c r="A952" s="1"/>
       <c r="B952" s="21">
         <v>819</v>
@@ -25752,7 +25755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="14.5">
+    <row r="953" spans="1:6" ht="15">
       <c r="A953" s="1"/>
       <c r="B953" s="21">
         <v>820</v>
@@ -25769,7 +25772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="14.5">
+    <row r="954" spans="1:6" ht="15">
       <c r="A954" s="1"/>
       <c r="B954" s="21">
         <v>821</v>
@@ -25786,7 +25789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="14.5">
+    <row r="955" spans="1:6" ht="15">
       <c r="A955" s="1"/>
       <c r="B955" s="21">
         <v>822</v>
@@ -25803,7 +25806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="14.5">
+    <row r="956" spans="1:6" ht="15">
       <c r="A956" s="1"/>
       <c r="B956" s="42">
         <v>823</v>
@@ -25820,7 +25823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="14.5">
+    <row r="957" spans="1:6" ht="15">
       <c r="A957" s="1"/>
       <c r="B957" s="43"/>
       <c r="C957" s="43"/>
@@ -25833,7 +25836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:6" ht="14.5">
+    <row r="958" spans="1:6" ht="15">
       <c r="A958" s="1"/>
       <c r="B958" s="21">
         <v>824</v>
@@ -25850,7 +25853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="14.5">
+    <row r="959" spans="1:6" ht="15">
       <c r="A959" s="1"/>
       <c r="B959" s="42">
         <v>825</v>
@@ -25867,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="14.5">
+    <row r="960" spans="1:6" ht="15">
       <c r="A960" s="1"/>
       <c r="B960" s="43"/>
       <c r="C960" s="43"/>
@@ -25880,7 +25883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="14.5">
+    <row r="961" spans="1:6" ht="15">
       <c r="A961" s="1"/>
       <c r="B961" s="21">
         <v>826</v>
@@ -25897,7 +25900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="14.5">
+    <row r="962" spans="1:6" ht="15">
       <c r="A962" s="1"/>
       <c r="B962" s="21">
         <v>827</v>
@@ -25914,7 +25917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:6" ht="14.5">
+    <row r="963" spans="1:6" ht="15">
       <c r="A963" s="1"/>
       <c r="B963" s="21">
         <v>828</v>
@@ -25931,7 +25934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="14.5">
+    <row r="964" spans="1:6" ht="15">
       <c r="A964" s="1"/>
       <c r="B964" s="21">
         <v>829</v>
@@ -25948,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="14.5">
+    <row r="965" spans="1:6" ht="15">
       <c r="A965" s="1"/>
       <c r="B965" s="21">
         <v>830</v>
@@ -25965,7 +25968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="14.5">
+    <row r="966" spans="1:6" ht="15">
       <c r="A966" s="1"/>
       <c r="B966" s="21">
         <v>831</v>
@@ -25982,7 +25985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:6" ht="14.5">
+    <row r="967" spans="1:6" ht="15">
       <c r="A967" s="1"/>
       <c r="B967" s="21">
         <v>832</v>
@@ -25999,7 +26002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:6" ht="14.5">
+    <row r="968" spans="1:6" ht="15">
       <c r="A968" s="1"/>
       <c r="B968" s="21">
         <v>833</v>
@@ -26016,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:6" ht="14.5">
+    <row r="969" spans="1:6" ht="15">
       <c r="A969" s="1"/>
       <c r="B969" s="21">
         <v>834</v>
@@ -26033,7 +26036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:6" ht="14.5">
+    <row r="970" spans="1:6" ht="15">
       <c r="A970" s="1"/>
       <c r="B970" s="21">
         <v>835</v>
@@ -26044,13 +26047,15 @@
       <c r="D970" s="23" t="s">
         <v>2509</v>
       </c>
-      <c r="E970" s="32"/>
+      <c r="E970" s="32" t="s">
+        <v>2513</v>
+      </c>
       <c r="F970" s="25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="971" spans="1:6" ht="14.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" ht="15">
       <c r="A971" s="1"/>
       <c r="B971" s="21">
         <v>836</v>
@@ -26071,26 +26076,195 @@
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="C394:C395"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="C402:C403"/>
-    <mergeCell ref="B408:B409"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="B846:B847"/>
+    <mergeCell ref="C846:C847"/>
+    <mergeCell ref="B864:B865"/>
+    <mergeCell ref="C864:C865"/>
+    <mergeCell ref="B874:B875"/>
+    <mergeCell ref="C874:C875"/>
+    <mergeCell ref="B802:B803"/>
+    <mergeCell ref="C802:C803"/>
+    <mergeCell ref="B805:B806"/>
+    <mergeCell ref="C805:C806"/>
+    <mergeCell ref="B810:B811"/>
+    <mergeCell ref="C810:C811"/>
+    <mergeCell ref="B820:B821"/>
+    <mergeCell ref="C820:C821"/>
+    <mergeCell ref="C825:C826"/>
+    <mergeCell ref="B825:B826"/>
+    <mergeCell ref="C758:C759"/>
+    <mergeCell ref="B760:B761"/>
+    <mergeCell ref="C760:C761"/>
+    <mergeCell ref="C766:C767"/>
+    <mergeCell ref="B766:B767"/>
+    <mergeCell ref="B776:B777"/>
+    <mergeCell ref="C776:C777"/>
+    <mergeCell ref="B787:B788"/>
+    <mergeCell ref="C787:C788"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="B499:B500"/>
+    <mergeCell ref="C499:C500"/>
+    <mergeCell ref="B510:B511"/>
+    <mergeCell ref="C510:C511"/>
+    <mergeCell ref="B538:B539"/>
+    <mergeCell ref="C538:C539"/>
+    <mergeCell ref="B494:B495"/>
+    <mergeCell ref="C494:C495"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="C439:C440"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="C456:C457"/>
+    <mergeCell ref="C466:C467"/>
+    <mergeCell ref="B466:B467"/>
+    <mergeCell ref="B479:B480"/>
+    <mergeCell ref="C479:C480"/>
+    <mergeCell ref="B484:B485"/>
+    <mergeCell ref="C484:C485"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="B410:B411"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B956:B957"/>
+    <mergeCell ref="C956:C957"/>
+    <mergeCell ref="B959:B960"/>
+    <mergeCell ref="C959:C960"/>
+    <mergeCell ref="B892:B893"/>
+    <mergeCell ref="C892:C893"/>
+    <mergeCell ref="B925:B926"/>
+    <mergeCell ref="C925:C926"/>
+    <mergeCell ref="B931:B932"/>
+    <mergeCell ref="C931:C932"/>
+    <mergeCell ref="C950:C951"/>
+    <mergeCell ref="B567:B568"/>
+    <mergeCell ref="C567:C568"/>
+    <mergeCell ref="B571:B572"/>
+    <mergeCell ref="C571:C572"/>
+    <mergeCell ref="B676:B677"/>
+    <mergeCell ref="C676:C677"/>
+    <mergeCell ref="B669:B670"/>
+    <mergeCell ref="C669:C670"/>
+    <mergeCell ref="B950:B951"/>
+    <mergeCell ref="B678:B679"/>
+    <mergeCell ref="C678:C679"/>
+    <mergeCell ref="B699:B700"/>
+    <mergeCell ref="C699:C700"/>
+    <mergeCell ref="C703:C704"/>
+    <mergeCell ref="B703:B704"/>
+    <mergeCell ref="B718:B719"/>
+    <mergeCell ref="C718:C719"/>
+    <mergeCell ref="B722:B723"/>
+    <mergeCell ref="C722:C723"/>
+    <mergeCell ref="B745:B746"/>
+    <mergeCell ref="C745:C746"/>
+    <mergeCell ref="B747:B748"/>
+    <mergeCell ref="C747:C748"/>
+    <mergeCell ref="B758:B759"/>
     <mergeCell ref="B421:B422"/>
     <mergeCell ref="C421:C422"/>
     <mergeCell ref="B423:B424"/>
@@ -26115,195 +26289,26 @@
     <mergeCell ref="B546:B547"/>
     <mergeCell ref="B549:B550"/>
     <mergeCell ref="C549:C550"/>
-    <mergeCell ref="B567:B568"/>
-    <mergeCell ref="C567:C568"/>
-    <mergeCell ref="B571:B572"/>
-    <mergeCell ref="C571:C572"/>
-    <mergeCell ref="B676:B677"/>
-    <mergeCell ref="C676:C677"/>
-    <mergeCell ref="B669:B670"/>
-    <mergeCell ref="C669:C670"/>
-    <mergeCell ref="B950:B951"/>
-    <mergeCell ref="B956:B957"/>
-    <mergeCell ref="C956:C957"/>
-    <mergeCell ref="B959:B960"/>
-    <mergeCell ref="C959:C960"/>
-    <mergeCell ref="B892:B893"/>
-    <mergeCell ref="C892:C893"/>
-    <mergeCell ref="B925:B926"/>
-    <mergeCell ref="C925:C926"/>
-    <mergeCell ref="B931:B932"/>
-    <mergeCell ref="C931:C932"/>
-    <mergeCell ref="C950:C951"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="B340:B341"/>
-    <mergeCell ref="C340:C341"/>
-    <mergeCell ref="B346:B347"/>
-    <mergeCell ref="C346:C347"/>
-    <mergeCell ref="B499:B500"/>
-    <mergeCell ref="C499:C500"/>
-    <mergeCell ref="B510:B511"/>
-    <mergeCell ref="C510:C511"/>
-    <mergeCell ref="B538:B539"/>
-    <mergeCell ref="C538:C539"/>
-    <mergeCell ref="B494:B495"/>
-    <mergeCell ref="C494:C495"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="C439:C440"/>
-    <mergeCell ref="B456:B457"/>
-    <mergeCell ref="C456:C457"/>
-    <mergeCell ref="C466:C467"/>
-    <mergeCell ref="B466:B467"/>
-    <mergeCell ref="B479:B480"/>
-    <mergeCell ref="C479:C480"/>
-    <mergeCell ref="B484:B485"/>
-    <mergeCell ref="C484:C485"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="B410:B411"/>
-    <mergeCell ref="B678:B679"/>
-    <mergeCell ref="C678:C679"/>
-    <mergeCell ref="B699:B700"/>
-    <mergeCell ref="C699:C700"/>
-    <mergeCell ref="C703:C704"/>
-    <mergeCell ref="B703:B704"/>
-    <mergeCell ref="B718:B719"/>
-    <mergeCell ref="C718:C719"/>
-    <mergeCell ref="B722:B723"/>
-    <mergeCell ref="C722:C723"/>
-    <mergeCell ref="B745:B746"/>
-    <mergeCell ref="C745:C746"/>
-    <mergeCell ref="B747:B748"/>
-    <mergeCell ref="C747:C748"/>
-    <mergeCell ref="B758:B759"/>
-    <mergeCell ref="C758:C759"/>
-    <mergeCell ref="B760:B761"/>
-    <mergeCell ref="C760:C761"/>
-    <mergeCell ref="C766:C767"/>
-    <mergeCell ref="B766:B767"/>
-    <mergeCell ref="B776:B777"/>
-    <mergeCell ref="C776:C777"/>
-    <mergeCell ref="B787:B788"/>
-    <mergeCell ref="C787:C788"/>
-    <mergeCell ref="B802:B803"/>
-    <mergeCell ref="C802:C803"/>
-    <mergeCell ref="B805:B806"/>
-    <mergeCell ref="C805:C806"/>
-    <mergeCell ref="B810:B811"/>
-    <mergeCell ref="C810:C811"/>
-    <mergeCell ref="B820:B821"/>
-    <mergeCell ref="C820:C821"/>
-    <mergeCell ref="C825:C826"/>
-    <mergeCell ref="B825:B826"/>
-    <mergeCell ref="B846:B847"/>
-    <mergeCell ref="C846:C847"/>
-    <mergeCell ref="B864:B865"/>
-    <mergeCell ref="C864:C865"/>
-    <mergeCell ref="B874:B875"/>
-    <mergeCell ref="C874:C875"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="C394:C395"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="C402:C403"/>
+    <mergeCell ref="B408:B409"/>
+    <mergeCell ref="C408:C409"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
